--- a/Docs/Dati Computazionali.xlsx
+++ b/Docs/Dati Computazionali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valerio\OneDrive - clstdio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169256D9-0DE9-4880-A336-6A0F65339F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6C3EA3-4891-4BB7-9E92-1D4929F78A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="9630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Test  sul numero di Pattern</t>
   </si>
@@ -359,7 +359,25 @@
     <t>OpenMP (16)</t>
   </si>
   <si>
-    <t>ù</t>
+    <t>100 + 600 + 100</t>
+  </si>
+  <si>
+    <t>1000 + 1500 + 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 + 10500 + 10000 </t>
+  </si>
+  <si>
+    <t>30000 + 30500 + 10000</t>
+  </si>
+  <si>
+    <t>80000 + 80500 + 20000</t>
+  </si>
+  <si>
+    <t>100000 + 100500 + 100000</t>
+  </si>
+  <si>
+    <t>500000 + 300500 + 300000</t>
   </si>
 </sst>
 </file>
@@ -513,13 +531,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" u="none" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -535,8 +553,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41812409489998048"/>
-          <c:y val="3.7022268858575257E-2"/>
+          <c:x val="0.439174340728338"/>
+          <c:y val="4.2945141794514197E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -554,8 +572,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4526856452751135E-2"/>
-          <c:y val="2.6786206517410181E-2"/>
+          <c:x val="9.2659279104934836E-2"/>
+          <c:y val="3.0071424894860976E-2"/>
           <c:w val="0.90670782754290502"/>
           <c:h val="0.70844955834495604"/>
         </c:manualLayout>
@@ -568,7 +586,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$5</c:f>
+              <c:f>Foglio1!$J$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -644,7 +662,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -674,7 +692,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$5:$Q$5</c:f>
+              <c:f>Foglio1!$K$30:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -705,7 +723,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E82-47DC-A618-C05CF3F06EBB}"/>
+              <c16:uniqueId val="{00000000-418B-4410-A163-374CFFE11F46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -714,7 +732,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$6</c:f>
+              <c:f>Foglio1!$J$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -790,7 +808,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -820,7 +838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$6:$Q$6</c:f>
+              <c:f>Foglio1!$K$31:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -851,7 +869,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E82-47DC-A618-C05CF3F06EBB}"/>
+              <c16:uniqueId val="{00000001-418B-4410-A163-374CFFE11F46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -860,7 +878,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$9</c:f>
+              <c:f>Foglio1!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +954,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -966,7 +984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$9:$Q$9</c:f>
+              <c:f>Foglio1!$K$34:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -997,7 +1015,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E82-47DC-A618-C05CF3F06EBB}"/>
+              <c16:uniqueId val="{00000002-418B-4410-A163-374CFFE11F46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1006,7 +1024,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$10</c:f>
+              <c:f>Foglio1!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1082,7 +1100,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1112,7 +1130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$10:$Q$10</c:f>
+              <c:f>Foglio1!$K$35:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1143,7 +1161,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E82-47DC-A618-C05CF3F06EBB}"/>
+              <c16:uniqueId val="{00000003-418B-4410-A163-374CFFE11F46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1152,7 +1170,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$11</c:f>
+              <c:f>Foglio1!$J$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1228,7 +1246,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1258,7 +1276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$11:$Q$11</c:f>
+              <c:f>Foglio1!$K$36:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1289,7 +1307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4E82-47DC-A618-C05CF3F06EBB}"/>
+              <c16:uniqueId val="{00000004-418B-4410-A163-374CFFE11F46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,7 +1316,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$7</c:f>
+              <c:f>Foglio1!$J$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1374,7 +1392,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1404,7 +1422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$7:$Q$7</c:f>
+              <c:f>Foglio1!$K$32:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1435,7 +1453,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4E82-47DC-A618-C05CF3F06EBB}"/>
+              <c16:uniqueId val="{00000005-418B-4410-A163-374CFFE11F46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,7 +1462,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$8</c:f>
+              <c:f>Foglio1!$J$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1520,7 +1538,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1550,7 +1568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$8:$Q$8</c:f>
+              <c:f>Foglio1!$K$33:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1581,7 +1599,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4E82-47DC-A618-C05CF3F06EBB}"/>
+              <c16:uniqueId val="{00000006-418B-4410-A163-374CFFE11F46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1619,13 +1637,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1641,8 +1659,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8421559196254562E-2"/>
-              <c:y val="0.71751215158918991"/>
+              <c:x val="2.2577438258685599E-2"/>
+              <c:y val="0.73105532310553201"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1713,13 +1731,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1600" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1747,7 +1765,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1795,7 +1813,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1200" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1050" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1848,13 +1866,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" u="none" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1870,8 +1888,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41187555868197384"/>
-          <c:y val="2.1309524474664916E-3"/>
+          <c:x val="0.42766324822101298"/>
+          <c:y val="1.45484350186978E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1903,7 +1921,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$31</c:f>
+              <c:f>Foglio1!$J$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1979,7 +1997,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2009,7 +2027,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$31:$Q$31</c:f>
+              <c:f>Foglio1!$K$56:$Q$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2040,7 +2058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB09-40BC-9BD9-29B53BBAD0F8}"/>
+              <c16:uniqueId val="{00000000-A7D5-4CA1-9507-6FBAEF811953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2049,7 +2067,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$15</c:f>
+              <c:f>Foglio1!$J$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2125,7 +2143,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2155,7 +2173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$15:$Q$15</c:f>
+              <c:f>Foglio1!$K$40:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2186,7 +2204,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AB09-40BC-9BD9-29B53BBAD0F8}"/>
+              <c16:uniqueId val="{00000001-A7D5-4CA1-9507-6FBAEF811953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2195,7 +2213,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$19</c:f>
+              <c:f>Foglio1!$J$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2271,7 +2289,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2301,7 +2319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$19:$Q$19</c:f>
+              <c:f>Foglio1!$K$44:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2332,7 +2350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AB09-40BC-9BD9-29B53BBAD0F8}"/>
+              <c16:uniqueId val="{00000002-A7D5-4CA1-9507-6FBAEF811953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2341,7 +2359,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$23</c:f>
+              <c:f>Foglio1!$J$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2417,7 +2435,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2447,7 +2465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$23:$Q$23</c:f>
+              <c:f>Foglio1!$K$48:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2478,7 +2496,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AB09-40BC-9BD9-29B53BBAD0F8}"/>
+              <c16:uniqueId val="{00000003-A7D5-4CA1-9507-6FBAEF811953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2487,7 +2505,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$27</c:f>
+              <c:f>Foglio1!$J$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2563,7 +2581,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$K$4:$Q$4</c:f>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2593,7 +2611,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$27:$Q$27</c:f>
+              <c:f>Foglio1!$K$52:$Q$52</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2624,7 +2642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AB09-40BC-9BD9-29B53BBAD0F8}"/>
+              <c16:uniqueId val="{00000004-A7D5-4CA1-9507-6FBAEF811953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2662,13 +2680,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2684,8 +2702,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.5185956046677263E-2"/>
-              <c:y val="0.80172266888664157"/>
+              <c:x val="2.6789451653411501E-2"/>
+              <c:y val="0.74847600020490801"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2757,13 +2775,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1600" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2839,7 +2857,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1200" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1050" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2892,13 +2910,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" u="none" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2914,8 +2932,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41435604909159951"/>
-          <c:y val="1.639259903108256E-3"/>
+          <c:x val="0.43285717936268597"/>
+          <c:y val="1.63926028379694E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2947,7 +2965,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$96</c:f>
+              <c:f>Foglio1!$AF$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3023,7 +3041,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3053,7 +3071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$96:$I$96</c:f>
+              <c:f>Foglio1!$AG$119:$AM$119</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3084,7 +3102,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DC3-4662-A8F3-AEBD4F4D1160}"/>
+              <c16:uniqueId val="{00000000-583B-42F7-B8F2-4CB183D6FEC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3093,7 +3111,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$102</c:f>
+              <c:f>Foglio1!$AF$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3169,7 +3187,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3199,7 +3217,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$102:$I$102</c:f>
+              <c:f>Foglio1!$AG$125:$AM$125</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3230,7 +3248,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DC3-4662-A8F3-AEBD4F4D1160}"/>
+              <c16:uniqueId val="{00000001-583B-42F7-B8F2-4CB183D6FEC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3239,7 +3257,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$120</c:f>
+              <c:f>Foglio1!$AF$143</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3315,7 +3333,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3345,7 +3363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$120:$I$120</c:f>
+              <c:f>Foglio1!$AG$143:$AM$143</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3376,7 +3394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4DC3-4662-A8F3-AEBD4F4D1160}"/>
+              <c16:uniqueId val="{00000002-583B-42F7-B8F2-4CB183D6FEC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3385,7 +3403,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$126</c:f>
+              <c:f>Foglio1!$AF$149</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3461,7 +3479,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3491,7 +3509,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$126:$I$126</c:f>
+              <c:f>Foglio1!$AG$149:$AM$149</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3522,7 +3540,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4DC3-4662-A8F3-AEBD4F4D1160}"/>
+              <c16:uniqueId val="{00000003-583B-42F7-B8F2-4CB183D6FEC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3531,7 +3549,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$108</c:f>
+              <c:f>Foglio1!$AF$131</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3607,7 +3625,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3637,7 +3655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$108:$I$108</c:f>
+              <c:f>Foglio1!$AG$131:$AM$131</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3668,7 +3686,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4DC3-4662-A8F3-AEBD4F4D1160}"/>
+              <c16:uniqueId val="{00000004-583B-42F7-B8F2-4CB183D6FEC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3677,7 +3695,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$114</c:f>
+              <c:f>Foglio1!$AF$137</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3753,7 +3771,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3783,7 +3801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$114:$I$114</c:f>
+              <c:f>Foglio1!$AG$137:$AM$137</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3814,7 +3832,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4DC3-4662-A8F3-AEBD4F4D1160}"/>
+              <c16:uniqueId val="{00000005-583B-42F7-B8F2-4CB183D6FEC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3858,7 +3876,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3867,13 +3885,6 @@
                   </a:rPr>
                   <a:t>Lunghezza</a:t>
                 </a:r>
-                <a:endParaRPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="595959"/>
-                  </a:solidFill>
-                  <a:uFillTx/>
-                  <a:latin typeface="Aptos Narrow"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3881,8 +3892,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1186950085156981E-2"/>
-              <c:y val="0.75557206048281544"/>
+              <c:x val="1.2214754810517999E-2"/>
+              <c:y val="0.75201065519184496"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3955,13 +3966,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1600" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -4037,7 +4048,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1200" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1050" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -4090,13 +4101,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" u="none" strike="noStrike">
+              <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -4112,8 +4123,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41012985870270519"/>
-          <c:y val="5.6439544193052082E-3"/>
+          <c:x val="0.42765462401881799"/>
+          <c:y val="1.4547689785882599E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4145,7 +4156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$140</c:f>
+              <c:f>Foglio1!$BM$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4221,7 +4232,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4251,7 +4262,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$140:$I$140</c:f>
+              <c:f>Foglio1!$BN$113:$BT$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4282,7 +4293,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D73-41B3-85DB-BD7A6D494837}"/>
+              <c16:uniqueId val="{00000000-8BF8-4698-97FD-5828F5F717F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4291,7 +4302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$144</c:f>
+              <c:f>Foglio1!$BM$117</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4367,7 +4378,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4397,7 +4408,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$144:$I$144</c:f>
+              <c:f>Foglio1!$BN$117:$BT$117</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4428,7 +4439,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3D73-41B3-85DB-BD7A6D494837}"/>
+              <c16:uniqueId val="{00000001-8BF8-4698-97FD-5828F5F717F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4437,7 +4448,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$148</c:f>
+              <c:f>Foglio1!$BM$121</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4513,7 +4524,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4543,7 +4554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$148:$I$148</c:f>
+              <c:f>Foglio1!$BN$121:$BT$121</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4574,7 +4585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3D73-41B3-85DB-BD7A6D494837}"/>
+              <c16:uniqueId val="{00000002-8BF8-4698-97FD-5828F5F717F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4583,7 +4594,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$152</c:f>
+              <c:f>Foglio1!$BM$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4659,7 +4670,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$90:$I$90</c:f>
+              <c:f>Foglio1!$AG$113:$AM$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4689,7 +4700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$152:$I$152</c:f>
+              <c:f>Foglio1!$BN$125:$BT$125</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4720,7 +4731,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3D73-41B3-85DB-BD7A6D494837}"/>
+              <c16:uniqueId val="{00000003-8BF8-4698-97FD-5828F5F717F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4758,13 +4769,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -4780,8 +4791,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1176816184942196E-2"/>
-              <c:y val="0.7538041517529952"/>
+              <c:x val="2.0454603564214701E-2"/>
+              <c:y val="0.75202335826247302"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4854,13 +4865,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1600" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -4936,7 +4947,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1200" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1050" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -5003,7 +5014,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$20</c:f>
+              <c:f>Foglio1!$AV$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5077,9 +5088,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BC$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$20:$AW$20</c:f>
+              <c:f>Foglio1!$AW$30:$BC$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5110,7 +5150,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC47-4C7E-B18A-600B76DA7A80}"/>
+              <c16:uniqueId val="{00000000-CE17-4954-BE8F-B0756C0F2C13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5119,7 +5159,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$26</c:f>
+              <c:f>Foglio1!$AV$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5193,9 +5233,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BC$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$26:$AW$26</c:f>
+              <c:f>Foglio1!$AW$36:$BC$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5226,7 +5295,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC47-4C7E-B18A-600B76DA7A80}"/>
+              <c16:uniqueId val="{00000001-CE17-4954-BE8F-B0756C0F2C13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5235,7 +5304,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$32</c:f>
+              <c:f>Foglio1!$AV$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5309,9 +5378,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BC$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$32:$AW$32</c:f>
+              <c:f>Foglio1!$AW$42:$BC$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5342,7 +5440,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC47-4C7E-B18A-600B76DA7A80}"/>
+              <c16:uniqueId val="{00000002-CE17-4954-BE8F-B0756C0F2C13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5351,7 +5449,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$38</c:f>
+              <c:f>Foglio1!$AV$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5425,9 +5523,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BC$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$38:$AW$38</c:f>
+              <c:f>Foglio1!$AW$48:$BC$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5458,7 +5585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FC47-4C7E-B18A-600B76DA7A80}"/>
+              <c16:uniqueId val="{00000003-CE17-4954-BE8F-B0756C0F2C13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5467,7 +5594,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$44</c:f>
+              <c:f>Foglio1!$AV$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5541,9 +5668,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BC$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$44:$AW$44</c:f>
+              <c:f>Foglio1!$AW$54:$BC$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5574,7 +5730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FC47-4C7E-B18A-600B76DA7A80}"/>
+              <c16:uniqueId val="{00000004-CE17-4954-BE8F-B0756C0F2C13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5583,7 +5739,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$50</c:f>
+              <c:f>Foglio1!$AV$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5657,9 +5813,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BC$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$50:$AW$50</c:f>
+              <c:f>Foglio1!$AW$60:$BC$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5690,7 +5875,78 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FC47-4C7E-B18A-600B76DA7A80}"/>
+              <c16:uniqueId val="{00000005-CE17-4954-BE8F-B0756C0F2C13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AV$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI+CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AW$66:$BC$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.6499999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8270000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3528E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7893999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.243366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40096999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.079688000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CE17-4954-BE8F-B0756C0F2C13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5728,21 +5984,38 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1200" b="0" u="none" strike="noStrike">
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:rPr>
-                  <a:t>Test</a:t>
+                  <a:t>Lunghezza DNA + Num Pattern Totali + Lunghezza Pattern Sample</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Aptos Narrow"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200" b="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="595959"/>
+                  </a:solidFill>
+                  <a:uFillTx/>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5750,8 +6023,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3147878197893549E-2"/>
-              <c:y val="0.76796476654984613"/>
+              <c:x val="0.39364002759317279"/>
+              <c:y val="0.73589460955686992"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5905,7 +6178,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1200" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1050" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -5972,7 +6245,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$64</c:f>
+              <c:f>Foglio1!$CF$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6046,9 +6319,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BD$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$64:$AW$64</c:f>
+              <c:f>Foglio1!$CG$37:$CM$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6079,7 +6381,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A01-498C-9909-3EF54D9E12D7}"/>
+              <c16:uniqueId val="{00000000-CF55-4276-A2F2-A3B030744056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6088,7 +6390,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$65</c:f>
+              <c:f>Foglio1!$CF$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6162,9 +6464,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BD$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$65:$AW$65</c:f>
+              <c:f>Foglio1!$CG$38:$CM$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6195,7 +6526,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A01-498C-9909-3EF54D9E12D7}"/>
+              <c16:uniqueId val="{00000001-CF55-4276-A2F2-A3B030744056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6204,7 +6535,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$66</c:f>
+              <c:f>Foglio1!$CF$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6278,9 +6609,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BD$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$66:$AW$66</c:f>
+              <c:f>Foglio1!$CG$39:$CM$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6311,7 +6671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2A01-498C-9909-3EF54D9E12D7}"/>
+              <c16:uniqueId val="{00000002-CF55-4276-A2F2-A3B030744056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6320,7 +6680,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$AP$67</c:f>
+              <c:f>Foglio1!$CF$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6394,9 +6754,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AW$22:$BD$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100 + 600 + 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000 + 1500 + 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 + 10500 + 10000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000 + 30500 + 10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000 + 80500 + 20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000 + 100500 + 100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000 + 300500 + 300000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$AQ$67:$AW$67</c:f>
+              <c:f>Foglio1!$CG$40:$CM$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6427,7 +6816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2A01-498C-9909-3EF54D9E12D7}"/>
+              <c16:uniqueId val="{00000003-CF55-4276-A2F2-A3B030744056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6464,22 +6853,75 @@
               <a:bodyPr rot="0"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" u="none" strike="noStrike">
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:rPr>
-                  <a:t>Test</a:t>
+                  <a:t>Lunghezza DNA + Num Pattern Totali + Lunghezza Pattern Sample </a:t>
                 </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT" sz="1400" b="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="595959"/>
+                  </a:solidFill>
+                  <a:uFillTx/>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6487,8 +6929,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.5322392471027501E-2"/>
-              <c:y val="0.75562157455309098"/>
+              <c:x val="0.34601193439444772"/>
+              <c:y val="0.72052654555577289"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6643,7 +7085,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1200" b="0" u="none" strike="noStrike">
+              <a:defRPr sz="1100" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -6687,15 +7129,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>271439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:colOff>68240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>256047</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>122903</xdr:rowOff>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6723,15 +7165,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>288281</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>22393</xdr:rowOff>
+      <xdr:colOff>573480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>115514</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>176149</xdr:rowOff>
+      <xdr:colOff>408960</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6758,16 +7200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>433354</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>81819</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>322920</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>488793</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>23858</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>287991</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6794,16 +7236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>463585</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>157014</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>447480</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>482718</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>99054</xdr:rowOff>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>427320</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6830,16 +7272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203734</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10241</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>399435</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>71694</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>405361</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133144</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6866,16 +7308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>524565</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>34411</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>12796</xdr:rowOff>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>394939</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7079,10 +7521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:CM152"/>
+  <dimension ref="A2:CM149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O25" zoomScale="62" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="AU86" sqref="AU86"/>
+    <sheetView tabSelected="1" topLeftCell="CC35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CF40" sqref="CF40:CM40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7091,24 +7533,18 @@
     <col min="3" max="3" width="9.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.90625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.6328125" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.36328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.7265625" style="1" customWidth="1"/>
     <col min="39" max="39" width="11.36328125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="8.81640625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="10.26953125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="9.90625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.7265625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="8.81640625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="14.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="10.54296875" style="1" customWidth="1"/>
     <col min="66" max="68" width="8.81640625" style="1" customWidth="1"/>
     <col min="69" max="70" width="11.7265625" style="1" customWidth="1"/>
@@ -7119,12 +7555,12 @@
     <col min="91" max="91" width="9.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7149,32 +7585,8 @@
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="6">
-        <v>200</v>
-      </c>
-      <c r="L4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="M4" s="6">
-        <v>20000</v>
-      </c>
-      <c r="N4" s="6">
-        <v>200000</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="P4" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>4000000</v>
-      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7190,32 +7602,8 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15.335000000000001</v>
-      </c>
-      <c r="O5" s="7">
-        <v>76</v>
-      </c>
-      <c r="P5" s="7">
-        <v>153.101</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>306.976</v>
-      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -7228,32 +7616,8 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="7">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="L6" s="7">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="N6" s="7">
-        <v>4.1559999999999997</v>
-      </c>
-      <c r="O6" s="7">
-        <v>20.882999999999999</v>
-      </c>
-      <c r="P6" s="7">
-        <v>41.329000000000001</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>83.472999999999999</v>
-      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -7266,32 +7630,8 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="7">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="L7" s="7">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>6.3E-2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0.185</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1.333</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>2.548</v>
-      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7304,32 +7644,8 @@
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="7">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1.365</v>
-      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -7342,32 +7658,8 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="L9" s="7">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="N9" s="7">
-        <v>2.08</v>
-      </c>
-      <c r="O9" s="7">
-        <v>10.426</v>
-      </c>
-      <c r="P9" s="7">
-        <v>20.684000000000001</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>41.642800000000001</v>
-      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
@@ -7380,32 +7672,8 @@
       <c r="E10" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="L10" s="7">
-        <v>2.47E-2</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="O10" s="7">
-        <v>5.2210000000000001</v>
-      </c>
-      <c r="P10" s="7">
-        <v>10.379</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>20.888000000000002</v>
-      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -7421,32 +7689,8 @@
       <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1.9060000000000001E-2</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6.3E-2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="O11" s="7">
-        <v>2.64</v>
-      </c>
-      <c r="P11" s="7">
-        <v>5.26</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>10.468</v>
-      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -7459,29 +7703,8 @@
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="7">
-        <v>2.1672E-2</v>
-      </c>
-      <c r="L12" s="7">
-        <v>6.1578000000000001E-2</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0.49901099999999998</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4.5018700000000003</v>
-      </c>
-      <c r="O12" s="7">
-        <v>23.057029</v>
-      </c>
-      <c r="P12" s="7">
-        <v>45.750855000000001</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>92.592254999999994</v>
-      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -7494,29 +7717,8 @@
       <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="7">
-        <v>2.1229999999999999E-2</v>
-      </c>
-      <c r="L13" s="7">
-        <v>6.2073999999999997E-2</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0.46296700000000002</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4.4402879999999998</v>
-      </c>
-      <c r="O13" s="7">
-        <v>23.279603999999999</v>
-      </c>
-      <c r="P13" s="7">
-        <v>46.475211999999999</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>92.192158000000006</v>
-      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
@@ -7529,29 +7731,8 @@
       <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="7">
-        <v>2.1246000000000001E-2</v>
-      </c>
-      <c r="L14" s="7">
-        <v>6.2082999999999999E-2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0.46190100000000001</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4.5199179999999997</v>
-      </c>
-      <c r="O14" s="7">
-        <v>23.018594</v>
-      </c>
-      <c r="P14" s="7">
-        <v>46.525534999999998</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>104.684263</v>
-      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
@@ -7564,55 +7745,8 @@
       <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" ref="K15:Q15" si="0">AVERAGE(K12:K14)</f>
-        <v>2.1382666666666664E-2</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="0"/>
-        <v>6.1911666666666663E-2</v>
-      </c>
-      <c r="M15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.47462633333333332</v>
-      </c>
-      <c r="N15" s="7">
-        <f t="shared" si="0"/>
-        <v>4.4873586666666663</v>
-      </c>
-      <c r="O15" s="7">
-        <f t="shared" si="0"/>
-        <v>23.118409</v>
-      </c>
-      <c r="P15" s="7">
-        <f t="shared" si="0"/>
-        <v>46.250533999999995</v>
-      </c>
-      <c r="Q15" s="7">
-        <f t="shared" si="0"/>
-        <v>96.489558666666667</v>
-      </c>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="AR15" s="4">
-        <v>4.5840000000000004E-3</v>
-      </c>
-      <c r="AS15" s="4">
-        <v>0.418354</v>
-      </c>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4">
-        <v>47.697127999999999</v>
-      </c>
-      <c r="AW15" s="4"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>0.21199999999999999</v>
       </c>
@@ -7625,45 +7759,8 @@
       <c r="E16" s="1">
         <v>0.05</v>
       </c>
-      <c r="K16" s="7">
-        <v>1.1991E-2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>3.3065999999999998E-2</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0.26178600000000002</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2.4156309999999999</v>
-      </c>
-      <c r="O16" s="7">
-        <v>13.333227000000001</v>
-      </c>
-      <c r="P16" s="7">
-        <v>26.689050000000002</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>53.424236000000001</v>
-      </c>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4">
-        <v>1.22E-4</v>
-      </c>
-      <c r="AR16" s="4">
-        <v>4.5240000000000002E-3</v>
-      </c>
-      <c r="AS16" s="4">
-        <v>0.41828199999999999</v>
-      </c>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4">
-        <v>47.671506999999998</v>
-      </c>
-      <c r="AW16" s="4"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -7688,45 +7785,8 @@
       <c r="H17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="7">
-        <v>1.393E-2</v>
-      </c>
-      <c r="L17" s="7">
-        <v>3.6916999999999998E-2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0.26117600000000002</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2.469932</v>
-      </c>
-      <c r="O17" s="7">
-        <v>13.17525</v>
-      </c>
-      <c r="P17" s="7">
-        <v>27.009466</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>53.242956</v>
-      </c>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4">
-        <v>1.2E-4</v>
-      </c>
-      <c r="AR17" s="4">
-        <v>4.5789999999999997E-3</v>
-      </c>
-      <c r="AS17" s="4">
-        <v>0.41692000000000001</v>
-      </c>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4">
-        <v>47.535356</v>
-      </c>
-      <c r="AW17" s="4"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>1.578695</v>
       </c>
@@ -7748,45 +7808,8 @@
       <c r="H18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="7">
-        <v>1.3906E-2</v>
-      </c>
-      <c r="L18" s="7">
-        <v>3.2564000000000003E-2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0.25276300000000002</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2.4586100000000002</v>
-      </c>
-      <c r="O18" s="7">
-        <v>14.159497</v>
-      </c>
-      <c r="P18" s="7">
-        <v>26.679399</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>53.198827999999999</v>
-      </c>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4">
-        <v>1.2E-4</v>
-      </c>
-      <c r="AR18" s="4">
-        <v>4.6210000000000001E-3</v>
-      </c>
-      <c r="AS18" s="4">
-        <v>0.41800500000000002</v>
-      </c>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4">
-        <v>47.526829999999997</v>
-      </c>
-      <c r="AW18" s="4"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>1.586338</v>
       </c>
@@ -7808,55 +7831,8 @@
       <c r="H19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7">
-        <f t="shared" ref="K19:Q19" si="1">AVERAGE(K16:K18)</f>
-        <v>1.3275666666666667E-2</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="1"/>
-        <v>3.4182333333333335E-2</v>
-      </c>
-      <c r="M19" s="7">
-        <f t="shared" si="1"/>
-        <v>0.258575</v>
-      </c>
-      <c r="N19" s="7">
-        <f t="shared" si="1"/>
-        <v>2.4480576666666667</v>
-      </c>
-      <c r="O19" s="7">
-        <f t="shared" si="1"/>
-        <v>13.555991333333333</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="1"/>
-        <v>26.792638333333333</v>
-      </c>
-      <c r="Q19" s="7">
-        <f t="shared" si="1"/>
-        <v>53.288673333333328</v>
-      </c>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4">
-        <v>1.21E-4</v>
-      </c>
-      <c r="AR19" s="4">
-        <v>4.5849999999999997E-3</v>
-      </c>
-      <c r="AS19" s="4">
-        <v>0.41768100000000002</v>
-      </c>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4">
-        <v>47.396408999999998</v>
-      </c>
-      <c r="AW19" s="4"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>1.5661989999999999</v>
       </c>
@@ -7878,57 +7854,8 @@
       <c r="H20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="7">
-        <v>9.2099999999999994E-3</v>
-      </c>
-      <c r="L20" s="7">
-        <v>2.6615E-2</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0.173898</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1.68286</v>
-      </c>
-      <c r="O20" s="7">
-        <v>8.6261480000000006</v>
-      </c>
-      <c r="P20" s="7">
-        <v>17.247371999999999</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>34.414406</v>
-      </c>
-      <c r="AP20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ20" s="4">
-        <f>AVERAGE(AQ15:AQ19)</f>
-        <v>1.226E-4</v>
-      </c>
-      <c r="AR20" s="4">
-        <f>AVERAGE(AR15:AR19)</f>
-        <v>4.5786000000000004E-3</v>
-      </c>
-      <c r="AS20" s="4">
-        <f>AVERAGE(AS15:AS19)</f>
-        <v>0.41784840000000001</v>
-      </c>
-      <c r="AT20" s="4">
-        <v>4.0442650000000002</v>
-      </c>
-      <c r="AU20" s="4">
-        <v>29.169322000000001</v>
-      </c>
-      <c r="AV20" s="4">
-        <f>AVERAGE(AV15:AV19)</f>
-        <v>47.565445999999994</v>
-      </c>
-      <c r="AW20" s="4">
-        <v>706.92577900000003</v>
-      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>1.563731</v>
       </c>
@@ -7950,39 +7877,8 @@
       <c r="H21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="7">
-        <v>8.8199999999999997E-3</v>
-      </c>
-      <c r="L21" s="7">
-        <v>2.6657E-2</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.17732700000000001</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1.7155210000000001</v>
-      </c>
-      <c r="O21" s="7">
-        <v>8.655951</v>
-      </c>
-      <c r="P21" s="7">
-        <v>17.127029</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>34.170884000000001</v>
-      </c>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4">
-        <v>2.31E-4</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>1.5760000000000001</v>
       </c>
@@ -8004,39 +7900,29 @@
       <c r="H22" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="K22" s="7">
-        <v>9.1260000000000004E-3</v>
-      </c>
-      <c r="L22" s="7">
-        <v>2.7614E-2</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0.17163300000000001</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1.71268</v>
-      </c>
-      <c r="O22" s="7">
-        <v>8.5964810000000007</v>
-      </c>
-      <c r="P22" s="7">
-        <v>17.078137000000002</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>34.353814999999997</v>
-      </c>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4">
-        <v>1.46E-4</v>
-      </c>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
+      <c r="AW22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -8059,49 +7945,8 @@
       <c r="H23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" ref="K23:Q23" si="2">AVERAGE(K20:K22)</f>
-        <v>9.0519999999999993E-3</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="2"/>
-        <v>2.6962E-2</v>
-      </c>
-      <c r="M23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.17428600000000002</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7036870000000002</v>
-      </c>
-      <c r="O23" s="7">
-        <f t="shared" si="2"/>
-        <v>8.6261933333333349</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="2"/>
-        <v>17.150846000000001</v>
-      </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="2"/>
-        <v>34.313034999999999</v>
-      </c>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4">
-        <v>1.5300000000000001E-4</v>
-      </c>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>15.312516</v>
       </c>
@@ -8121,39 +7966,8 @@
       <c r="H24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="7">
-        <v>7.7939999999999997E-3</v>
-      </c>
-      <c r="L24" s="7">
-        <v>2.2623999999999998E-2</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0.15339</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1.484437</v>
-      </c>
-      <c r="O24" s="7">
-        <v>7.5044069999999996</v>
-      </c>
-      <c r="P24" s="7">
-        <v>14.899896</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>30.008098</v>
-      </c>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4">
-        <v>1.55E-4</v>
-      </c>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>15.314218</v>
       </c>
@@ -8173,39 +7987,24 @@
       <c r="H25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="7">
-        <v>8.7159999999999998E-3</v>
-      </c>
-      <c r="L25" s="7">
-        <v>2.1596000000000001E-2</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0.152591</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1.50037</v>
-      </c>
-      <c r="O25" s="7">
-        <v>7.3358119999999998</v>
-      </c>
-      <c r="P25" s="7">
-        <v>15.059558000000001</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>29.661989999999999</v>
-      </c>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
+      <c r="AW25" s="4">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>4.5840000000000004E-3</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>0.418354</v>
+      </c>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4">
+        <v>47.697127999999999</v>
+      </c>
+      <c r="BC25" s="4"/>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>15.32447</v>
       </c>
@@ -8225,54 +8024,24 @@
       <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="7">
-        <v>8.5470000000000008E-3</v>
-      </c>
-      <c r="L26" s="7">
-        <v>2.2710999999999999E-2</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0.15236</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1.519269</v>
-      </c>
-      <c r="O26" s="7">
-        <v>7.5154249999999996</v>
-      </c>
-      <c r="P26" s="7">
-        <v>14.878522</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>30.025974999999999</v>
-      </c>
-      <c r="AP26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ26" s="4">
-        <f>AVERAGE(AQ21:AQ25)</f>
-        <v>1.6699999999999999E-4</v>
-      </c>
-      <c r="AR26" s="4">
-        <v>1.9369999999999999E-3</v>
-      </c>
-      <c r="AS26" s="4">
-        <v>0.12436700000000001</v>
-      </c>
-      <c r="AT26" s="4">
-        <v>1.1612309999999999</v>
-      </c>
-      <c r="AU26" s="4">
-        <v>8.305142</v>
-      </c>
-      <c r="AV26" s="4">
-        <v>12.879296</v>
-      </c>
+      <c r="AV26" s="4"/>
       <c r="AW26" s="4">
-        <v>195.43697900000001</v>
-      </c>
+        <v>1.22E-4</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>4.5240000000000002E-3</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>0.41828199999999999</v>
+      </c>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4">
+        <v>47.671506999999998</v>
+      </c>
+      <c r="BC26" s="4"/>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>15.308825000000001</v>
       </c>
@@ -8292,49 +8061,24 @@
       <c r="H27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="7">
-        <f t="shared" ref="K27:Q27" si="3">AVERAGE(K24:K26)</f>
-        <v>8.3523333333333349E-3</v>
-      </c>
-      <c r="L27" s="7">
-        <f t="shared" si="3"/>
-        <v>2.2310333333333331E-2</v>
-      </c>
-      <c r="M27" s="7">
-        <f t="shared" si="3"/>
-        <v>0.15278033333333332</v>
-      </c>
-      <c r="N27" s="7">
-        <f t="shared" si="3"/>
-        <v>1.5013586666666665</v>
-      </c>
-      <c r="O27" s="7">
-        <f t="shared" si="3"/>
-        <v>7.4518813333333327</v>
-      </c>
-      <c r="P27" s="7">
-        <f t="shared" si="3"/>
-        <v>14.945991999999999</v>
-      </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="3"/>
-        <v>29.898687666666664</v>
-      </c>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4">
-        <v>2.9399999999999999E-4</v>
-      </c>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
+      <c r="AW27" s="4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>4.5789999999999997E-3</v>
+      </c>
+      <c r="AY27" s="4">
+        <v>0.41692000000000001</v>
+      </c>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4">
+        <v>47.535356</v>
+      </c>
+      <c r="BC27" s="4"/>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>15.335000000000001</v>
       </c>
@@ -8356,39 +8100,24 @@
       <c r="H28" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="K28" s="7">
-        <v>4.0152E-2</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0.12192</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0.89046400000000003</v>
-      </c>
-      <c r="N28" s="7">
-        <v>8.3621750000000006</v>
-      </c>
-      <c r="O28" s="7">
-        <v>42.582348000000003</v>
-      </c>
-      <c r="P28" s="7">
-        <v>84.861384000000001</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>167.44395499999999</v>
-      </c>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4">
-        <v>3.0299999999999999E-4</v>
-      </c>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
+      <c r="AW28" s="4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>4.6210000000000001E-3</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>0.41800500000000002</v>
+      </c>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4">
+        <v>47.526829999999997</v>
+      </c>
+      <c r="BC28" s="4"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -8413,39 +8142,48 @@
       <c r="H29" s="1">
         <v>5.2375639999999999</v>
       </c>
-      <c r="K29" s="7">
-        <v>4.0344999999999999E-2</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0.122447</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0.88430399999999998</v>
-      </c>
-      <c r="N29" s="7">
-        <v>8.5444630000000004</v>
-      </c>
-      <c r="O29" s="7">
-        <v>42.262723000000001</v>
-      </c>
-      <c r="P29" s="7">
-        <v>83.786259999999999</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>167.34497300000001</v>
-      </c>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4">
-        <v>2.6800000000000001E-4</v>
-      </c>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
+      <c r="J29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="6">
+        <v>200</v>
+      </c>
+      <c r="L29" s="6">
+        <v>2000</v>
+      </c>
+      <c r="M29" s="6">
+        <v>20000</v>
+      </c>
+      <c r="N29" s="6">
+        <v>200000</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="P29" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>4000000</v>
+      </c>
       <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
+      <c r="AW29" s="4">
+        <v>1.21E-4</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>4.5849999999999997E-3</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>0.41768100000000002</v>
+      </c>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4">
+        <v>47.396408999999998</v>
+      </c>
+      <c r="BC29" s="4"/>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>152.70781299999999</v>
       </c>
@@ -8467,39 +8205,60 @@
       <c r="H30" s="1">
         <v>5.2861950000000002</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="K30" s="7">
-        <v>4.0075E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L30" s="7">
-        <v>0.118121</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="M30" s="7">
-        <v>0.879938</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="N30" s="7">
-        <v>8.5541820000000008</v>
+        <v>15.335000000000001</v>
       </c>
       <c r="O30" s="7">
-        <v>42.164566000000001</v>
+        <v>76</v>
       </c>
       <c r="P30" s="7">
-        <v>83.965948999999995</v>
+        <v>153.101</v>
       </c>
       <c r="Q30" s="7">
-        <v>167.13014000000001</v>
-      </c>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4">
-        <v>2.9599999999999998E-4</v>
-      </c>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
+        <v>306.976</v>
+      </c>
+      <c r="AV30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW30" s="4">
+        <f>AVERAGE(AW25:AW29)</f>
+        <v>1.226E-4</v>
+      </c>
+      <c r="AX30" s="4">
+        <f>AVERAGE(AX25:AX29)</f>
+        <v>4.5786000000000004E-3</v>
+      </c>
+      <c r="AY30" s="4">
+        <f>AVERAGE(AY25:AY29)</f>
+        <v>0.41784840000000001</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>4.0442650000000002</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>29.169322000000001</v>
+      </c>
+      <c r="BB30" s="4">
+        <f>AVERAGE(BB25:BB29)</f>
+        <v>47.565445999999994</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>706.92577900000003</v>
+      </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>153.772367</v>
       </c>
@@ -8522,48 +8281,41 @@
         <v>5.2474220000000003</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" ref="K31:Q31" si="4">AVERAGE(K28:K30)</f>
-        <v>4.0190666666666666E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="4"/>
-        <v>0.12082933333333334</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="4"/>
-        <v>0.88490199999999997</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="4"/>
-        <v>8.4869400000000006</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="4"/>
-        <v>42.336545666666666</v>
+        <v>20.882999999999999</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="4"/>
-        <v>84.204531000000003</v>
+        <v>41.329000000000001</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="4"/>
-        <v>167.30635600000002</v>
-      </c>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4">
-        <v>2.9E-4</v>
-      </c>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
-      <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
+        <v>83.472999999999999</v>
+      </c>
       <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
+      <c r="AW31" s="4">
+        <v>2.31E-4</v>
+      </c>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>153.01072600000001</v>
       </c>
@@ -8585,31 +8337,40 @@
       <c r="H32" s="1">
         <v>5.2553289999999997</v>
       </c>
-      <c r="AP32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ32" s="4">
-        <f>AVERAGE(AQ27:AQ31)</f>
-        <v>2.9020000000000001E-4</v>
-      </c>
-      <c r="AR32" s="4">
-        <v>1.173E-3</v>
-      </c>
-      <c r="AS32" s="4">
-        <v>6.3261999999999999E-2</v>
-      </c>
-      <c r="AT32" s="4">
-        <v>0.58345199999999997</v>
-      </c>
-      <c r="AU32" s="4">
-        <v>4.1889459999999996</v>
-      </c>
-      <c r="AV32" s="4">
-        <v>6.4459390000000001</v>
-      </c>
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L32" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1.333</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>2.548</v>
+      </c>
+      <c r="AV32" s="4"/>
       <c r="AW32" s="4">
-        <v>97.555536000000004</v>
-      </c>
+        <v>1.46E-4</v>
+      </c>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
     </row>
     <row r="33" spans="2:91" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
@@ -8633,16 +8394,40 @@
       <c r="H33" s="1">
         <v>5.271909</v>
       </c>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4">
-        <v>3.7399999999999998E-4</v>
-      </c>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
+      <c r="J33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="M33" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>1.365</v>
+      </c>
       <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
+      <c r="AW33" s="4">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
     </row>
     <row r="34" spans="2:91" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
@@ -8672,40 +8457,127 @@
         <f>AVERAGE(H29:H33)</f>
         <v>5.2596838000000004</v>
       </c>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4">
-        <v>4.1300000000000001E-4</v>
-      </c>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
+      <c r="J34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="L34" s="7">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="O34" s="7">
+        <v>10.426</v>
+      </c>
+      <c r="P34" s="7">
+        <v>20.684000000000001</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>41.642800000000001</v>
+      </c>
       <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
+      <c r="AW34" s="4">
+        <v>1.55E-4</v>
+      </c>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
     </row>
     <row r="35" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
+      <c r="J35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="L35" s="7">
+        <v>2.47E-2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="N35" s="7">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="O35" s="7">
+        <v>5.2210000000000001</v>
+      </c>
+      <c r="P35" s="7">
+        <v>10.379</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>20.888000000000002</v>
+      </c>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
+      <c r="AW35" s="4">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
     </row>
     <row r="36" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4">
-        <v>3.86E-4</v>
-      </c>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
+      <c r="J36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1.9060000000000001E-2</v>
+      </c>
+      <c r="M36" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="O36" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="P36" s="7">
+        <v>5.26</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>10.468</v>
+      </c>
+      <c r="AV36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW36" s="4">
+        <f>AVERAGE(AW31:AW35)</f>
+        <v>1.6699999999999999E-4</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>1.9369999999999999E-3</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>0.12436700000000001</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>1.1612309999999999</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>8.305142</v>
+      </c>
+      <c r="BB36" s="4">
+        <v>12.879296</v>
+      </c>
+      <c r="BC36" s="4">
+        <v>195.43697900000001</v>
+      </c>
       <c r="CF36" s="4"/>
       <c r="CG36" s="4"/>
       <c r="CH36" s="4"/>
@@ -8716,331 +8588,872 @@
       <c r="CM36" s="4"/>
     </row>
     <row r="37" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4">
-        <v>3.6499999999999998E-4</v>
-      </c>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
+      <c r="K37" s="7">
+        <v>2.1672E-2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>6.1578000000000001E-2</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.49901099999999998</v>
+      </c>
+      <c r="N37" s="7">
+        <v>4.5018700000000003</v>
+      </c>
+      <c r="O37" s="7">
+        <v>23.057029</v>
+      </c>
+      <c r="P37" s="7">
+        <v>45.750855000000001</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>92.592254999999994</v>
+      </c>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
+      <c r="AW37" s="4">
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="CF37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG37" s="4">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="CH37" s="4">
+        <v>6.1850000000000004E-3</v>
+      </c>
+      <c r="CI37" s="4">
+        <v>0.43378800000000001</v>
+      </c>
+      <c r="CJ37" s="4">
+        <v>4.4697089999999999</v>
+      </c>
+      <c r="CK37" s="4">
+        <v>31.976589000000001</v>
+      </c>
+      <c r="CL37" s="4">
+        <v>50.381278999999999</v>
+      </c>
+      <c r="CM37" s="4">
+        <v>455.26502499999998</v>
+      </c>
     </row>
     <row r="38" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ38" s="4">
-        <f>AVERAGE(AQ33:AQ37)</f>
-        <v>4.0759999999999999E-4</v>
-      </c>
-      <c r="AR38" s="4">
-        <v>8.5700000000000001E-4</v>
-      </c>
-      <c r="AS38" s="4">
-        <v>3.2868000000000001E-2</v>
-      </c>
-      <c r="AT38" s="4">
-        <v>0.29929299999999998</v>
-      </c>
-      <c r="AU38" s="4">
-        <v>2.1046640000000001</v>
-      </c>
-      <c r="AV38" s="4">
-        <v>3.3117519999999998</v>
-      </c>
+      <c r="K38" s="7">
+        <v>2.1229999999999999E-2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>6.2073999999999997E-2</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.46296700000000002</v>
+      </c>
+      <c r="N38" s="7">
+        <v>4.4402879999999998</v>
+      </c>
+      <c r="O38" s="7">
+        <v>23.279603999999999</v>
+      </c>
+      <c r="P38" s="7">
+        <v>46.475211999999999</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>92.192158000000006</v>
+      </c>
+      <c r="AV38" s="4"/>
       <c r="AW38" s="4">
-        <v>49.137987000000003</v>
+        <v>3.0299999999999999E-4</v>
+      </c>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="CF38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG38" s="4">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="CH38" s="4">
+        <v>1.6429999999999999E-3</v>
+      </c>
+      <c r="CI38" s="4">
+        <v>0.123178</v>
+      </c>
+      <c r="CJ38" s="4">
+        <v>1.1941090000000001</v>
+      </c>
+      <c r="CK38" s="4">
+        <v>8.953106</v>
+      </c>
+      <c r="CL38" s="4">
+        <v>13.660847</v>
+      </c>
+      <c r="CM38" s="4">
+        <v>210.58185399999999</v>
       </c>
     </row>
     <row r="39" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4">
-        <v>6.2299999999999996E-4</v>
-      </c>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
+      <c r="K39" s="7">
+        <v>2.1246000000000001E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <v>6.2082999999999999E-2</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.46190100000000001</v>
+      </c>
+      <c r="N39" s="7">
+        <v>4.5199179999999997</v>
+      </c>
+      <c r="O39" s="7">
+        <v>23.018594</v>
+      </c>
+      <c r="P39" s="7">
+        <v>46.525534999999998</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>104.684263</v>
+      </c>
       <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
+      <c r="AW39" s="4">
+        <v>2.6800000000000001E-4</v>
+      </c>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="CF39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG39" s="4">
+        <v>2.1900000000000001E-4</v>
+      </c>
+      <c r="CH39" s="4">
+        <v>1.042E-3</v>
+      </c>
+      <c r="CI39" s="4">
+        <v>6.1519999999999998E-2</v>
+      </c>
+      <c r="CJ39" s="4">
+        <v>0.87136899999999995</v>
+      </c>
+      <c r="CK39" s="4">
+        <v>4.7864550000000001</v>
+      </c>
+      <c r="CL39" s="4">
+        <v>8.5036760000000005</v>
+      </c>
+      <c r="CM39" s="4">
+        <v>122.24682199999999</v>
+      </c>
     </row>
     <row r="40" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4">
-        <v>6.0700000000000001E-4</v>
-      </c>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
+      <c r="J40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" ref="K40:Q40" si="0">AVERAGE(K37:K39)</f>
+        <v>2.1382666666666664E-2</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="0"/>
+        <v>6.1911666666666663E-2</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47462633333333332</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4873586666666663</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="0"/>
+        <v>23.118409</v>
+      </c>
+      <c r="P40" s="7">
+        <f t="shared" si="0"/>
+        <v>46.250533999999995</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="0"/>
+        <v>96.489558666666667</v>
+      </c>
       <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
+      <c r="AW40" s="4">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="CF40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CG40" s="4">
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="CH40" s="4">
+        <v>1.085E-3</v>
+      </c>
+      <c r="CI40" s="4">
+        <v>4.7371999999999997E-2</v>
+      </c>
+      <c r="CJ40" s="4">
+        <v>0.46357700000000002</v>
+      </c>
+      <c r="CK40" s="4">
+        <v>3.2923260000000001</v>
+      </c>
+      <c r="CL40" s="4">
+        <v>5.2658870000000002</v>
+      </c>
+      <c r="CM40" s="4">
+        <v>79.119332</v>
+      </c>
     </row>
     <row r="41" spans="2:91" x14ac:dyDescent="0.35">
+      <c r="K41" s="7">
+        <v>1.1991E-2</v>
+      </c>
+      <c r="L41" s="7">
+        <v>3.3065999999999998E-2</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.26178600000000002</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2.4156309999999999</v>
+      </c>
+      <c r="O41" s="7">
+        <v>13.333227000000001</v>
+      </c>
+      <c r="P41" s="7">
+        <v>26.689050000000002</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>53.424236000000001</v>
+      </c>
       <c r="V41" s="1">
         <v>1.9060000000000001E-2</v>
       </c>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4">
-        <v>7.18E-4</v>
-      </c>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
       <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
+      <c r="AW41" s="4">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
     </row>
     <row r="42" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4">
-        <v>7.1199999999999996E-4</v>
-      </c>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
+      <c r="K42" s="7">
+        <v>1.393E-2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>3.6916999999999998E-2</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.26117600000000002</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2.469932</v>
+      </c>
+      <c r="O42" s="7">
+        <v>13.17525</v>
+      </c>
+      <c r="P42" s="7">
+        <v>27.009466</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>53.242956</v>
+      </c>
+      <c r="AV42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW42" s="4">
+        <f>AVERAGE(AW37:AW41)</f>
+        <v>2.9020000000000001E-4</v>
+      </c>
+      <c r="AX42" s="4">
+        <v>1.173E-3</v>
+      </c>
+      <c r="AY42" s="4">
+        <v>6.3261999999999999E-2</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>0.58345199999999997</v>
+      </c>
+      <c r="BA42" s="4">
+        <v>4.1889459999999996</v>
+      </c>
+      <c r="BB42" s="4">
+        <v>6.4459390000000001</v>
+      </c>
+      <c r="BC42" s="4">
+        <v>97.555536000000004</v>
+      </c>
     </row>
     <row r="43" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="4">
-        <v>6.96E-4</v>
-      </c>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
+      <c r="K43" s="7">
+        <v>1.3906E-2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>3.2564000000000003E-2</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.25276300000000002</v>
+      </c>
+      <c r="N43" s="7">
+        <v>2.4586100000000002</v>
+      </c>
+      <c r="O43" s="7">
+        <v>14.159497</v>
+      </c>
+      <c r="P43" s="7">
+        <v>26.679399</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>53.198827999999999</v>
+      </c>
       <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
+      <c r="AW43" s="4">
+        <v>3.7399999999999998E-4</v>
+      </c>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
     </row>
     <row r="44" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ44" s="4">
-        <f>AVERAGE(AQ39:AQ43)</f>
-        <v>6.7120000000000005E-4</v>
-      </c>
-      <c r="AR44" s="4">
-        <v>9.0499999999999999E-4</v>
-      </c>
-      <c r="AS44" s="4">
-        <v>2.1996999999999999E-2</v>
-      </c>
-      <c r="AT44" s="4">
-        <v>0.19920599999999999</v>
-      </c>
-      <c r="AU44" s="4">
-        <v>1.390093</v>
-      </c>
-      <c r="AV44" s="4">
-        <v>1.9326650000000001</v>
-      </c>
+      <c r="J44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" ref="K44:Q44" si="1">AVERAGE(K41:K43)</f>
+        <v>1.3275666666666667E-2</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4182333333333335E-2</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="1"/>
+        <v>0.258575</v>
+      </c>
+      <c r="N44" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4480576666666667</v>
+      </c>
+      <c r="O44" s="7">
+        <f t="shared" si="1"/>
+        <v>13.555991333333333</v>
+      </c>
+      <c r="P44" s="7">
+        <f t="shared" si="1"/>
+        <v>26.792638333333333</v>
+      </c>
+      <c r="Q44" s="7">
+        <f t="shared" si="1"/>
+        <v>53.288673333333328</v>
+      </c>
+      <c r="AV44" s="4"/>
       <c r="AW44" s="4">
-        <v>32.224975000000001</v>
-      </c>
+        <v>4.1300000000000001E-4</v>
+      </c>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
     </row>
     <row r="45" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="4">
-        <v>3.4400000000000001E-4</v>
-      </c>
-      <c r="AR45" s="4">
-        <v>2.529E-3</v>
-      </c>
-      <c r="AS45" s="4">
-        <v>2.2203000000000001E-2</v>
-      </c>
-      <c r="AT45" s="4"/>
-      <c r="AU45" s="4"/>
-      <c r="AV45" s="4">
-        <v>1.486367</v>
-      </c>
-      <c r="AW45" s="4"/>
+      <c r="K45" s="7">
+        <v>9.2099999999999994E-3</v>
+      </c>
+      <c r="L45" s="7">
+        <v>2.6615E-2</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0.173898</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1.68286</v>
+      </c>
+      <c r="O45" s="7">
+        <v>8.6261480000000006</v>
+      </c>
+      <c r="P45" s="7">
+        <v>17.247371999999999</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>34.414406</v>
+      </c>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="4"/>
     </row>
     <row r="46" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP46" s="4"/>
-      <c r="AQ46" s="4">
-        <v>3.4200000000000002E-4</v>
-      </c>
-      <c r="AR46" s="4">
-        <v>2.5330000000000001E-3</v>
-      </c>
-      <c r="AS46" s="4">
-        <v>2.2617000000000002E-2</v>
-      </c>
-      <c r="AT46" s="4"/>
-      <c r="AU46" s="4"/>
-      <c r="AV46" s="4">
-        <v>1.5109360000000001</v>
-      </c>
-      <c r="AW46" s="4"/>
+      <c r="K46" s="7">
+        <v>8.8199999999999997E-3</v>
+      </c>
+      <c r="L46" s="7">
+        <v>2.6657E-2</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.17732700000000001</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1.7155210000000001</v>
+      </c>
+      <c r="O46" s="7">
+        <v>8.655951</v>
+      </c>
+      <c r="P46" s="7">
+        <v>17.127029</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>34.170884000000001</v>
+      </c>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4">
+        <v>3.86E-4</v>
+      </c>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="4"/>
     </row>
     <row r="47" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP47" s="4"/>
-      <c r="AQ47" s="4">
-        <v>3.4900000000000003E-4</v>
-      </c>
-      <c r="AR47" s="4">
-        <v>2.5370000000000002E-3</v>
-      </c>
-      <c r="AS47" s="4">
-        <v>2.2255E-2</v>
-      </c>
-      <c r="AT47" s="4"/>
-      <c r="AU47" s="4"/>
-      <c r="AV47" s="4">
-        <v>1.5130760000000001</v>
-      </c>
-      <c r="AW47" s="4"/>
+      <c r="K47" s="7">
+        <v>9.1260000000000004E-3</v>
+      </c>
+      <c r="L47" s="7">
+        <v>2.7614E-2</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0.17163300000000001</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1.71268</v>
+      </c>
+      <c r="O47" s="7">
+        <v>8.5964810000000007</v>
+      </c>
+      <c r="P47" s="7">
+        <v>17.078137000000002</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>34.353814999999997</v>
+      </c>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4">
+        <v>3.6499999999999998E-4</v>
+      </c>
+      <c r="AX47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
+      <c r="BA47" s="4"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="4"/>
     </row>
     <row r="48" spans="2:91" x14ac:dyDescent="0.35">
-      <c r="AP48" s="4"/>
-      <c r="AQ48" s="4">
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="AR48" s="4">
-        <v>2.5040000000000001E-3</v>
-      </c>
-      <c r="AS48" s="4">
-        <v>2.2499000000000002E-2</v>
-      </c>
-      <c r="AT48" s="4"/>
-      <c r="AU48" s="4"/>
-      <c r="AV48" s="4">
-        <v>1.498786</v>
-      </c>
-      <c r="AW48" s="4"/>
+      <c r="J48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" ref="K48:Q48" si="2">AVERAGE(K45:K47)</f>
+        <v>9.0519999999999993E-3</v>
+      </c>
+      <c r="L48" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6962E-2</v>
+      </c>
+      <c r="M48" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17428600000000002</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7036870000000002</v>
+      </c>
+      <c r="O48" s="7">
+        <f t="shared" si="2"/>
+        <v>8.6261933333333349</v>
+      </c>
+      <c r="P48" s="7">
+        <f t="shared" si="2"/>
+        <v>17.150846000000001</v>
+      </c>
+      <c r="Q48" s="7">
+        <f t="shared" si="2"/>
+        <v>34.313034999999999</v>
+      </c>
+      <c r="AV48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW48" s="4">
+        <f>AVERAGE(AW43:AW47)</f>
+        <v>4.0759999999999999E-4</v>
+      </c>
+      <c r="AX48" s="4">
+        <v>8.5700000000000001E-4</v>
+      </c>
+      <c r="AY48" s="4">
+        <v>3.2868000000000001E-2</v>
+      </c>
+      <c r="AZ48" s="4">
+        <v>0.29929299999999998</v>
+      </c>
+      <c r="BA48" s="4">
+        <v>2.1046640000000001</v>
+      </c>
+      <c r="BB48" s="4">
+        <v>3.3117519999999998</v>
+      </c>
+      <c r="BC48" s="4">
+        <v>49.137987000000003</v>
+      </c>
     </row>
-    <row r="49" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP49" s="4"/>
-      <c r="AQ49" s="4">
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="AR49" s="4">
-        <v>2.532E-3</v>
-      </c>
-      <c r="AS49" s="4">
-        <v>2.2644999999999998E-2</v>
-      </c>
-      <c r="AT49" s="4"/>
-      <c r="AU49" s="4"/>
-      <c r="AV49" s="4">
-        <v>1.495357</v>
-      </c>
-      <c r="AW49" s="4"/>
+    <row r="49" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="K49" s="7">
+        <v>7.7939999999999997E-3</v>
+      </c>
+      <c r="L49" s="7">
+        <v>2.2623999999999998E-2</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0.15339</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1.484437</v>
+      </c>
+      <c r="O49" s="7">
+        <v>7.5044069999999996</v>
+      </c>
+      <c r="P49" s="7">
+        <v>14.899896</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>30.008098</v>
+      </c>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4">
+        <v>6.2299999999999996E-4</v>
+      </c>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
     </row>
-    <row r="50" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ50" s="4">
-        <f>AVERAGE(AQ45:AQ49)</f>
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="AR50" s="4">
-        <f>AVERAGE(AR45:AR49)</f>
-        <v>2.5270000000000002E-3</v>
-      </c>
-      <c r="AS50" s="4">
-        <f>AVERAGE(AS45:AS49)</f>
-        <v>2.24438E-2</v>
-      </c>
-      <c r="AT50" s="4">
-        <v>5.3151999999999998E-2</v>
-      </c>
-      <c r="AU50" s="4">
-        <v>1.217452</v>
-      </c>
-      <c r="AV50" s="4">
-        <f>AVERAGE(AV45:AV49)</f>
-        <v>1.5009044</v>
-      </c>
+    <row r="50" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="K50" s="7">
+        <v>8.7159999999999998E-3</v>
+      </c>
+      <c r="L50" s="7">
+        <v>2.1596000000000001E-2</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.152591</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1.50037</v>
+      </c>
+      <c r="O50" s="7">
+        <v>7.3358119999999998</v>
+      </c>
+      <c r="P50" s="7">
+        <v>15.059558000000001</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>29.661989999999999</v>
+      </c>
+      <c r="AV50" s="4"/>
       <c r="AW50" s="4">
-        <v>26.116978</v>
-      </c>
+        <v>6.0700000000000001E-4</v>
+      </c>
+      <c r="AX50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="4"/>
+      <c r="BB50" s="4"/>
+      <c r="BC50" s="4"/>
     </row>
-    <row r="51" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
-      <c r="AS51" s="4"/>
-      <c r="AT51" s="4"/>
-      <c r="AU51" s="4"/>
+    <row r="51" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="K51" s="7">
+        <v>8.5470000000000008E-3</v>
+      </c>
+      <c r="L51" s="7">
+        <v>2.2710999999999999E-2</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.15236</v>
+      </c>
+      <c r="N51" s="7">
+        <v>1.519269</v>
+      </c>
+      <c r="O51" s="7">
+        <v>7.5154249999999996</v>
+      </c>
+      <c r="P51" s="7">
+        <v>14.878522</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>30.025974999999999</v>
+      </c>
       <c r="AV51" s="4"/>
-      <c r="AW51" s="4"/>
+      <c r="AW51" s="4">
+        <v>7.18E-4</v>
+      </c>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
     </row>
-    <row r="52" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP52" s="4"/>
-      <c r="AQ52" s="4"/>
-      <c r="AR52" s="4"/>
-      <c r="AS52" s="4"/>
-      <c r="AT52" s="4"/>
-      <c r="AU52" s="4"/>
+    <row r="52" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" s="7">
+        <f t="shared" ref="K52:Q52" si="3">AVERAGE(K49:K51)</f>
+        <v>8.3523333333333349E-3</v>
+      </c>
+      <c r="L52" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2310333333333331E-2</v>
+      </c>
+      <c r="M52" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15278033333333332</v>
+      </c>
+      <c r="N52" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5013586666666665</v>
+      </c>
+      <c r="O52" s="7">
+        <f t="shared" si="3"/>
+        <v>7.4518813333333327</v>
+      </c>
+      <c r="P52" s="7">
+        <f t="shared" si="3"/>
+        <v>14.945991999999999</v>
+      </c>
+      <c r="Q52" s="7">
+        <f t="shared" si="3"/>
+        <v>29.898687666666664</v>
+      </c>
       <c r="AV52" s="4"/>
-      <c r="AW52" s="4"/>
+      <c r="AW52" s="4">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
     </row>
-    <row r="53" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
-      <c r="AS53" s="4"/>
-      <c r="AT53" s="4"/>
-      <c r="AU53" s="4"/>
+    <row r="53" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="K53" s="7">
+        <v>4.0152E-2</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.12192</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0.89046400000000003</v>
+      </c>
+      <c r="N53" s="7">
+        <v>8.3621750000000006</v>
+      </c>
+      <c r="O53" s="7">
+        <v>42.582348000000003</v>
+      </c>
+      <c r="P53" s="7">
+        <v>84.861384000000001</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>167.44395499999999</v>
+      </c>
       <c r="AV53" s="4"/>
-      <c r="AW53" s="4"/>
+      <c r="AW53" s="4">
+        <v>6.96E-4</v>
+      </c>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
     </row>
-    <row r="54" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP54" s="4"/>
-      <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
-      <c r="AS54" s="4"/>
-      <c r="AT54" s="4"/>
-      <c r="AU54" s="4"/>
-      <c r="AV54" s="4"/>
-      <c r="AW54" s="4"/>
+    <row r="54" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="K54" s="7">
+        <v>4.0344999999999999E-2</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.122447</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0.88430399999999998</v>
+      </c>
+      <c r="N54" s="7">
+        <v>8.5444630000000004</v>
+      </c>
+      <c r="O54" s="7">
+        <v>42.262723000000001</v>
+      </c>
+      <c r="P54" s="7">
+        <v>83.786259999999999</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>167.34497300000001</v>
+      </c>
+      <c r="AV54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW54" s="4">
+        <f>AVERAGE(AW49:AW53)</f>
+        <v>6.7120000000000005E-4</v>
+      </c>
+      <c r="AX54" s="4">
+        <v>9.0499999999999999E-4</v>
+      </c>
+      <c r="AY54" s="4">
+        <v>2.1996999999999999E-2</v>
+      </c>
+      <c r="AZ54" s="4">
+        <v>0.19920599999999999</v>
+      </c>
+      <c r="BA54" s="4">
+        <v>1.390093</v>
+      </c>
+      <c r="BB54" s="4">
+        <v>1.9326650000000001</v>
+      </c>
+      <c r="BC54" s="4">
+        <v>32.224975000000001</v>
+      </c>
     </row>
-    <row r="55" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP55" s="4"/>
-      <c r="AQ55" s="4"/>
-      <c r="AR55" s="4"/>
-      <c r="AS55" s="4"/>
-      <c r="AT55" s="4"/>
-      <c r="AU55" s="4"/>
+    <row r="55" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="K55" s="7">
+        <v>4.0075E-2</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.118121</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.879938</v>
+      </c>
+      <c r="N55" s="7">
+        <v>8.5541820000000008</v>
+      </c>
+      <c r="O55" s="7">
+        <v>42.164566000000001</v>
+      </c>
+      <c r="P55" s="7">
+        <v>83.965948999999995</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>167.13014000000001</v>
+      </c>
       <c r="AV55" s="4"/>
-      <c r="AW55" s="4"/>
+      <c r="AW55" s="4">
+        <v>3.4400000000000001E-4</v>
+      </c>
+      <c r="AX55" s="4">
+        <v>2.529E-3</v>
+      </c>
+      <c r="AY55" s="4">
+        <v>2.2203000000000001E-2</v>
+      </c>
+      <c r="AZ55" s="4"/>
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4">
+        <v>1.486367</v>
+      </c>
+      <c r="BC55" s="4"/>
     </row>
-    <row r="56" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ56" s="4">
-        <v>5.6499999999999996E-4</v>
-      </c>
-      <c r="AR56" s="4">
-        <v>2.8270000000000001E-3</v>
-      </c>
-      <c r="AS56" s="4">
-        <v>2.3528E-2</v>
-      </c>
-      <c r="AT56" s="4">
-        <v>6.7893999999999996E-2</v>
-      </c>
-      <c r="AU56" s="4">
-        <v>0.243366</v>
-      </c>
-      <c r="AV56" s="4">
-        <v>0.40096999999999999</v>
-      </c>
+    <row r="56" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" ref="K56:Q56" si="4">AVERAGE(K53:K55)</f>
+        <v>4.0190666666666666E-2</v>
+      </c>
+      <c r="L56" s="7">
+        <f t="shared" si="4"/>
+        <v>0.12082933333333334</v>
+      </c>
+      <c r="M56" s="7">
+        <f t="shared" si="4"/>
+        <v>0.88490199999999997</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4869400000000006</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" si="4"/>
+        <v>42.336545666666666</v>
+      </c>
+      <c r="P56" s="7">
+        <f t="shared" si="4"/>
+        <v>84.204531000000003</v>
+      </c>
+      <c r="Q56" s="7">
+        <f t="shared" si="4"/>
+        <v>167.30635600000002</v>
+      </c>
+      <c r="AV56" s="4"/>
       <c r="AW56" s="4">
-        <v>13.079688000000001</v>
-      </c>
+        <v>3.4200000000000002E-4</v>
+      </c>
+      <c r="AX56" s="4">
+        <v>2.5330000000000001E-3</v>
+      </c>
+      <c r="AY56" s="4">
+        <v>2.2617000000000002E-2</v>
+      </c>
+      <c r="AZ56" s="4"/>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4">
+        <v>1.5109360000000001</v>
+      </c>
+      <c r="BC56" s="4"/>
     </row>
-    <row r="57" spans="11:49" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:55" x14ac:dyDescent="0.35">
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -9048,8 +9461,24 @@
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="4">
+        <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="AX57" s="4">
+        <v>2.5370000000000002E-3</v>
+      </c>
+      <c r="AY57" s="4">
+        <v>2.2255E-2</v>
+      </c>
+      <c r="AZ57" s="4"/>
+      <c r="BA57" s="4"/>
+      <c r="BB57" s="4">
+        <v>1.5130760000000001</v>
+      </c>
+      <c r="BC57" s="4"/>
     </row>
-    <row r="58" spans="11:49" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:55" x14ac:dyDescent="0.35">
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -9057,1268 +9486,1273 @@
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="AX58" s="4">
+        <v>2.5040000000000001E-3</v>
+      </c>
+      <c r="AY58" s="4">
+        <v>2.2499000000000002E-2</v>
+      </c>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4">
+        <v>1.498786</v>
+      </c>
+      <c r="BC58" s="4"/>
     </row>
-    <row r="64" spans="11:49" x14ac:dyDescent="0.35">
-      <c r="AP64" s="4" t="s">
+    <row r="59" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="4">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="AX59" s="4">
+        <v>2.532E-3</v>
+      </c>
+      <c r="AY59" s="4">
+        <v>2.2644999999999998E-2</v>
+      </c>
+      <c r="AZ59" s="4"/>
+      <c r="BA59" s="4"/>
+      <c r="BB59" s="4">
+        <v>1.495357</v>
+      </c>
+      <c r="BC59" s="4"/>
+    </row>
+    <row r="60" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="AV60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW60" s="4">
+        <f>AVERAGE(AW55:AW59)</f>
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="AX60" s="4">
+        <f>AVERAGE(AX55:AX59)</f>
+        <v>2.5270000000000002E-3</v>
+      </c>
+      <c r="AY60" s="4">
+        <f>AVERAGE(AY55:AY59)</f>
+        <v>2.24438E-2</v>
+      </c>
+      <c r="AZ60" s="4">
+        <v>5.3151999999999998E-2</v>
+      </c>
+      <c r="BA60" s="4">
+        <v>1.217452</v>
+      </c>
+      <c r="BB60" s="4">
+        <f>AVERAGE(BB55:BB59)</f>
+        <v>1.5009044</v>
+      </c>
+      <c r="BC60" s="4">
+        <v>26.116978</v>
+      </c>
+    </row>
+    <row r="61" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="AV61" s="4"/>
+      <c r="AW61" s="4"/>
+      <c r="AX61" s="4"/>
+      <c r="AY61" s="4"/>
+      <c r="AZ61" s="4"/>
+      <c r="BA61" s="4"/>
+      <c r="BB61" s="4"/>
+      <c r="BC61" s="4"/>
+    </row>
+    <row r="62" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="AV62" s="4"/>
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="4"/>
+      <c r="AY62" s="4"/>
+      <c r="AZ62" s="4"/>
+      <c r="BA62" s="4"/>
+      <c r="BB62" s="4"/>
+      <c r="BC62" s="4"/>
+    </row>
+    <row r="63" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
+      <c r="AY63" s="4"/>
+      <c r="AZ63" s="4"/>
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="4"/>
+    </row>
+    <row r="64" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="4"/>
+      <c r="AY64" s="4"/>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="4"/>
+    </row>
+    <row r="65" spans="48:55" x14ac:dyDescent="0.35">
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="4"/>
+      <c r="AY65" s="4"/>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="4"/>
+    </row>
+    <row r="66" spans="48:55" x14ac:dyDescent="0.35">
+      <c r="AV66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW66" s="4">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="AX66" s="4">
+        <v>2.8270000000000001E-3</v>
+      </c>
+      <c r="AY66" s="4">
+        <v>2.3528E-2</v>
+      </c>
+      <c r="AZ66" s="4">
+        <v>6.7893999999999996E-2</v>
+      </c>
+      <c r="BA66" s="4">
+        <v>0.243366</v>
+      </c>
+      <c r="BB66" s="4">
+        <v>0.40096999999999999</v>
+      </c>
+      <c r="BC66" s="4">
+        <v>13.079688000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="66:72" x14ac:dyDescent="0.35">
+      <c r="BN110" s="4">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="BO110" s="4">
+        <v>2.0960000000000002E-3</v>
+      </c>
+      <c r="BP110" s="4">
+        <v>2.1219999999999999E-2</v>
+      </c>
+      <c r="BQ110" s="4">
+        <v>0.187307</v>
+      </c>
+      <c r="BR110" s="4">
+        <v>1.6350420000000001</v>
+      </c>
+      <c r="BS110" s="4">
+        <v>6.1908139999999996</v>
+      </c>
+      <c r="BT110" s="4">
+        <v>13.55222</v>
+      </c>
+    </row>
+    <row r="111" spans="66:72" x14ac:dyDescent="0.35">
+      <c r="BN111" s="4">
+        <v>2.02E-4</v>
+      </c>
+      <c r="BO111" s="4">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="BP111" s="4">
+        <v>2.0438999999999999E-2</v>
+      </c>
+      <c r="BQ111" s="4">
+        <v>0.19494800000000001</v>
+      </c>
+      <c r="BR111" s="4">
+        <v>1.6875659999999999</v>
+      </c>
+      <c r="BS111" s="4">
+        <v>6.8707710000000004</v>
+      </c>
+      <c r="BT111" s="4">
+        <v>13.861660000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="66:72" x14ac:dyDescent="0.35">
+      <c r="BN112" s="4">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="BO112" s="4">
+        <v>2.3630000000000001E-3</v>
+      </c>
+      <c r="BP112" s="4">
+        <v>2.1440000000000001E-2</v>
+      </c>
+      <c r="BQ112" s="4">
+        <v>0.19031999999999999</v>
+      </c>
+      <c r="BR112" s="4">
+        <v>1.651249</v>
+      </c>
+      <c r="BS112" s="4">
+        <v>7.0079079999999996</v>
+      </c>
+      <c r="BT112" s="4">
+        <v>12.840194</v>
+      </c>
+    </row>
+    <row r="113" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG113" s="1">
+        <v>100</v>
+      </c>
+      <c r="AH113" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AI113" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AJ113" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AK113" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AL113" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="AM113" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="BM113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AQ64" s="4">
-        <v>1.9100000000000001E-4</v>
-      </c>
-      <c r="AR64" s="4">
-        <v>6.1850000000000004E-3</v>
-      </c>
-      <c r="AS64" s="4">
-        <v>0.43378800000000001</v>
-      </c>
-      <c r="AT64" s="4">
-        <v>4.4697089999999999</v>
-      </c>
-      <c r="AU64" s="4">
-        <v>31.976589000000001</v>
-      </c>
-      <c r="AV64" s="4">
-        <v>50.381278999999999</v>
-      </c>
-      <c r="AW64" s="4">
-        <v>455.26502499999998</v>
-      </c>
-    </row>
-    <row r="65" spans="42:49" x14ac:dyDescent="0.35">
-      <c r="AP65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ65" s="4">
-        <v>1.3899999999999999E-4</v>
-      </c>
-      <c r="AR65" s="4">
-        <v>1.6429999999999999E-3</v>
-      </c>
-      <c r="AS65" s="4">
-        <v>0.123178</v>
-      </c>
-      <c r="AT65" s="4">
-        <v>1.1941090000000001</v>
-      </c>
-      <c r="AU65" s="4">
-        <v>8.953106</v>
-      </c>
-      <c r="AV65" s="4">
-        <v>13.660847</v>
-      </c>
-      <c r="AW65" s="4">
-        <v>210.58185399999999</v>
-      </c>
-    </row>
-    <row r="66" spans="42:49" x14ac:dyDescent="0.35">
-      <c r="AP66" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ66" s="4">
-        <v>2.1900000000000001E-4</v>
-      </c>
-      <c r="AR66" s="4">
-        <v>1.042E-3</v>
-      </c>
-      <c r="AS66" s="4">
-        <v>6.1519999999999998E-2</v>
-      </c>
-      <c r="AT66" s="4">
-        <v>0.87136899999999995</v>
-      </c>
-      <c r="AU66" s="4">
-        <v>4.7864550000000001</v>
-      </c>
-      <c r="AV66" s="4">
-        <v>8.5036760000000005</v>
-      </c>
-      <c r="AW66" s="4">
-        <v>122.24682199999999</v>
-      </c>
-    </row>
-    <row r="67" spans="42:49" x14ac:dyDescent="0.35">
-      <c r="AP67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ67" s="4">
-        <v>3.5199999999999999E-4</v>
-      </c>
-      <c r="AR67" s="4">
-        <v>1.085E-3</v>
-      </c>
-      <c r="AS67" s="4">
-        <v>4.7371999999999997E-2</v>
-      </c>
-      <c r="AT67" s="4">
-        <v>0.46357700000000002</v>
-      </c>
-      <c r="AU67" s="4">
-        <v>3.2923260000000001</v>
-      </c>
-      <c r="AV67" s="4">
-        <v>5.2658870000000002</v>
-      </c>
-      <c r="AW67" s="4">
-        <v>79.119332</v>
-      </c>
-    </row>
-    <row r="86" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="AU86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="C90" s="1">
-        <v>100</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E90" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F90" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="H90" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="I90" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="91" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="C91" s="4">
-        <v>2.4600000000000002E-4</v>
-      </c>
-      <c r="D91" s="4">
-        <v>3.1350000000000002E-3</v>
-      </c>
-      <c r="E91" s="4">
-        <v>3.0988000000000002E-2</v>
-      </c>
-      <c r="F91" s="4">
-        <v>0.28859099999999999</v>
-      </c>
-      <c r="G91" s="4">
-        <v>2.3925200000000002</v>
-      </c>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4">
-        <v>20.809104999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="C92" s="4">
-        <v>2.4600000000000002E-4</v>
-      </c>
-      <c r="D92" s="4">
-        <v>3.1510000000000002E-3</v>
-      </c>
-      <c r="E92" s="4">
-        <v>3.1073E-2</v>
-      </c>
-      <c r="F92" s="4">
-        <v>0.28927700000000001</v>
-      </c>
-      <c r="G92" s="4">
-        <v>2.3922819999999998</v>
-      </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4">
-        <v>20.915330999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="C93" s="4">
-        <v>2.42E-4</v>
-      </c>
-      <c r="D93" s="4">
-        <v>3.1120000000000002E-3</v>
-      </c>
-      <c r="E93" s="4">
-        <v>3.0981000000000002E-2</v>
-      </c>
-      <c r="F93" s="4">
-        <v>0.28648099999999999</v>
-      </c>
-      <c r="G93" s="4">
-        <v>2.3836689999999998</v>
-      </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4">
-        <v>20.864477000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="C94" s="4">
-        <v>2.4399999999999999E-4</v>
-      </c>
-      <c r="D94" s="4">
-        <v>3.0959999999999998E-3</v>
-      </c>
-      <c r="E94" s="4">
-        <v>3.0849999999999999E-2</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0.28945900000000002</v>
-      </c>
-      <c r="G94" s="4">
-        <v>2.3900960000000002</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4">
-        <v>20.831752000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="C95" s="4">
-        <v>2.4499999999999999E-4</v>
-      </c>
-      <c r="D95" s="4">
-        <v>3.1210000000000001E-3</v>
-      </c>
-      <c r="E95" s="4">
-        <v>3.0973000000000001E-2</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0.29006399999999999</v>
-      </c>
-      <c r="G95" s="4">
-        <v>2.38625</v>
-      </c>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4">
-        <v>20.842518999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="4">
-        <f>AVERAGE(C91:C95)</f>
-        <v>2.4460000000000004E-4</v>
-      </c>
-      <c r="D96" s="4">
-        <f>AVERAGE(D91:D95)</f>
-        <v>3.1229999999999999E-3</v>
-      </c>
-      <c r="E96" s="4">
-        <f>AVERAGE(E91:E95)</f>
-        <v>3.0973000000000007E-2</v>
-      </c>
-      <c r="F96" s="4">
-        <f>AVERAGE(F91:F95)</f>
-        <v>0.28877440000000004</v>
-      </c>
-      <c r="G96" s="4">
-        <f>AVERAGE(G91:G95)</f>
-        <v>2.3889634000000002</v>
-      </c>
-      <c r="H96" s="4">
-        <v>10.516999999999999</v>
-      </c>
-      <c r="I96" s="4">
-        <f>AVERAGE(I91:I95)</f>
-        <v>20.852636799999999</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C97" s="4">
-        <v>2.0599999999999999E-4</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1.323E-3</v>
-      </c>
-      <c r="E97" s="4">
-        <v>1.0122000000000001E-2</v>
-      </c>
-      <c r="F97" s="4">
-        <v>8.7137999999999993E-2</v>
-      </c>
-      <c r="G97" s="4">
-        <v>0.76625699999999997</v>
-      </c>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4">
-        <v>7.2524519999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C98" s="4">
-        <v>2.22E-4</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1.3240000000000001E-3</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1.0182E-2</v>
-      </c>
-      <c r="F98" s="4">
-        <v>8.5405999999999996E-2</v>
-      </c>
-      <c r="G98" s="4">
-        <v>0.76732199999999995</v>
-      </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4">
-        <v>7.2466010000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C99" s="4">
-        <v>2.0799999999999999E-4</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1.343E-3</v>
-      </c>
-      <c r="E99" s="4">
-        <v>1.0318000000000001E-2</v>
-      </c>
-      <c r="F99" s="4">
-        <v>8.634E-2</v>
-      </c>
-      <c r="G99" s="4">
-        <v>0.76908200000000004</v>
-      </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4">
-        <v>7.2423019999999996</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C100" s="4">
-        <v>1.9599999999999999E-4</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1.317E-3</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1.0101000000000001E-2</v>
-      </c>
-      <c r="F100" s="4">
-        <v>8.5615999999999998E-2</v>
-      </c>
-      <c r="G100" s="4">
-        <v>0.76640299999999995</v>
-      </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4">
-        <v>7.251919</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C101" s="4">
-        <v>1.95E-4</v>
-      </c>
-      <c r="D101" s="4">
-        <v>1.3179999999999999E-3</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1.0423E-2</v>
-      </c>
-      <c r="F101" s="4">
-        <v>8.5740999999999998E-2</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0.76641000000000004</v>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4">
-        <v>7.2602060000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="4">
-        <f>AVERAGE(C97:C101)</f>
-        <v>2.0539999999999998E-4</v>
-      </c>
-      <c r="D102" s="4">
-        <f>AVERAGE(D97:D101)</f>
-        <v>1.3250000000000002E-3</v>
-      </c>
-      <c r="E102" s="4">
-        <f>AVERAGE(E97:E101)</f>
-        <v>1.0229200000000001E-2</v>
-      </c>
-      <c r="F102" s="4">
-        <f>AVERAGE(F97:F101)</f>
-        <v>8.6048200000000005E-2</v>
-      </c>
-      <c r="G102" s="4">
-        <f>AVERAGE(G97:G101)</f>
-        <v>0.76709479999999997</v>
-      </c>
-      <c r="H102" s="4">
-        <v>3.5550000000000002</v>
-      </c>
-      <c r="I102" s="4">
-        <f>AVERAGE(I97:I101)</f>
-        <v>7.2506959999999996</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C103" s="4">
-        <v>3.7199999999999999E-4</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1.6360000000000001E-3</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1.2779E-2</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0.11734600000000001</v>
-      </c>
-      <c r="G103" s="4">
-        <v>0.88089399999999995</v>
-      </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4">
-        <v>8.1165009999999995</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C104" s="4">
-        <v>3.7300000000000001E-4</v>
-      </c>
-      <c r="D104" s="4">
-        <v>1.629E-3</v>
-      </c>
-      <c r="E104" s="4">
-        <v>1.2781000000000001E-2</v>
-      </c>
-      <c r="F104" s="4">
-        <v>9.3145000000000006E-2</v>
-      </c>
-      <c r="G104" s="4">
-        <v>0.83774099999999996</v>
-      </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4">
-        <v>8.1190130000000007</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C105" s="4">
-        <v>3.7100000000000002E-4</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1.6379999999999999E-3</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1.2772E-2</v>
-      </c>
-      <c r="F105" s="4">
-        <v>9.2565999999999996E-2</v>
-      </c>
-      <c r="G105" s="4">
-        <v>0.83778699999999995</v>
-      </c>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4">
-        <v>8.1176119999999994</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C106" s="4">
-        <v>3.77E-4</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1.616E-3</v>
-      </c>
-      <c r="E106" s="4">
-        <v>1.2756999999999999E-2</v>
-      </c>
-      <c r="F106" s="4">
-        <v>9.2656000000000002E-2</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0.83715200000000001</v>
-      </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4">
-        <v>8.1174800000000005</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C107" s="4">
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.632E-3</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.2779E-2</v>
-      </c>
-      <c r="F107" s="4">
-        <v>9.2516000000000001E-2</v>
-      </c>
-      <c r="G107" s="4">
-        <v>0.83665299999999998</v>
-      </c>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4">
-        <v>8.1267019999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="4">
-        <f>AVERAGE(C103:C107)</f>
-        <v>3.726E-4</v>
-      </c>
-      <c r="D108" s="4">
-        <f>AVERAGE(D103:D107)</f>
-        <v>1.6302000000000001E-3</v>
-      </c>
-      <c r="E108" s="4">
-        <f>AVERAGE(E103:E107)</f>
-        <v>1.27736E-2</v>
-      </c>
-      <c r="F108" s="4">
-        <f>AVERAGE(F103:F107)</f>
-        <v>9.7645800000000005E-2</v>
-      </c>
-      <c r="G108" s="4">
-        <f>AVERAGE(G103:G107)</f>
-        <v>0.84604540000000006</v>
-      </c>
-      <c r="H108" s="4">
-        <v>4.1180000000000003</v>
-      </c>
-      <c r="I108" s="4">
-        <f>AVERAGE(I103:I107)</f>
-        <v>8.1194616000000011</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C109" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1.6919999999999999E-3</v>
-      </c>
-      <c r="E109" s="4">
-        <v>9.7680000000000006E-3</v>
-      </c>
-      <c r="F109" s="4">
-        <v>7.7304999999999999E-2</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0.66856199999999999</v>
-      </c>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4">
-        <v>6.7299170000000004</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C110" s="4">
-        <v>6.1799999999999995E-4</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1.5150000000000001E-3</v>
-      </c>
-      <c r="E110" s="4">
-        <v>9.6179999999999998E-3</v>
-      </c>
-      <c r="F110" s="4">
-        <v>7.7460000000000001E-2</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0.66788999999999998</v>
-      </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4">
-        <v>6.720961</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C111" s="4">
-        <v>6.8199999999999999E-4</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1.598E-3</v>
-      </c>
-      <c r="E111" s="4">
-        <v>9.6279999999999994E-3</v>
-      </c>
-      <c r="F111" s="4">
-        <v>7.5887999999999997E-2</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0.66789399999999999</v>
-      </c>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4">
-        <v>6.7146660000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C112" s="4">
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1.2930000000000001E-3</v>
-      </c>
-      <c r="E112" s="4">
-        <v>9.5659999999999999E-3</v>
-      </c>
-      <c r="F112" s="4">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="G112" s="4">
-        <v>0.668014</v>
-      </c>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4">
-        <v>6.7464050000000002</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C113" s="4">
-        <v>6.4300000000000002E-4</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1.598E-3</v>
-      </c>
-      <c r="E113" s="4">
-        <v>9.8429999999999993E-3</v>
-      </c>
-      <c r="F113" s="4">
-        <v>7.4579999999999994E-2</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0.66871100000000006</v>
-      </c>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4">
-        <v>6.7349220000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="4">
-        <f>AVERAGE(C109:C113)</f>
-        <v>7.2459999999999994E-4</v>
-      </c>
-      <c r="D114" s="4">
-        <f>AVERAGE(D109:D113)</f>
-        <v>1.5391999999999999E-3</v>
-      </c>
-      <c r="E114" s="4">
-        <f>AVERAGE(E109:E113)</f>
-        <v>9.6845999999999981E-3</v>
-      </c>
-      <c r="F114" s="4">
-        <f>AVERAGE(F109:F113)</f>
-        <v>7.7296599999999993E-2</v>
-      </c>
-      <c r="G114" s="4">
-        <f>AVERAGE(G109:G113)</f>
-        <v>0.66821419999999998</v>
-      </c>
-      <c r="H114" s="4">
-        <v>3.469411</v>
-      </c>
-      <c r="I114" s="4">
-        <f>AVERAGE(I109:I113)</f>
-        <v>6.7293741999999996</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4">
-        <v>0.45109500000000002</v>
-      </c>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4">
-        <v>3.9921630000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4">
-        <v>0.45226899999999998</v>
-      </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4">
-        <v>3.9852110000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4">
-        <v>0.45232699999999998</v>
-      </c>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4">
-        <v>3.9918779999999998</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4">
-        <v>0.45219599999999999</v>
-      </c>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4">
-        <v>3.9888370000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4">
-        <v>0.44864500000000002</v>
-      </c>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4">
-        <v>3.9991219999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="4">
-        <v>3.1700000000000001E-4</v>
-      </c>
-      <c r="D120" s="4">
-        <v>9.6100000000000005E-4</v>
-      </c>
-      <c r="E120" s="4">
-        <v>5.9040000000000004E-3</v>
-      </c>
-      <c r="F120" s="4">
-        <v>5.0375999999999997E-2</v>
-      </c>
-      <c r="G120" s="4">
-        <f>AVERAGE(G115:G119)</f>
-        <v>0.4513064</v>
-      </c>
-      <c r="H120" s="4">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="I120" s="4">
-        <f>AVERAGE(I115:I119)</f>
-        <v>3.9914422000000003</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4">
-        <v>2.98109</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4">
-        <v>2.9703339999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4">
-        <v>2.9968689999999998</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4">
-        <v>2.9746809999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4">
-        <v>2.9746350000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="4">
-        <v>4.08E-4</v>
-      </c>
-      <c r="D126" s="4">
-        <v>7.2800000000000002E-4</v>
-      </c>
-      <c r="E126" s="4">
-        <v>4.2379999999999996E-3</v>
-      </c>
-      <c r="F126" s="4">
-        <v>3.0557000000000001E-2</v>
-      </c>
-      <c r="G126" s="4">
-        <v>0.28589599999999998</v>
-      </c>
-      <c r="H126" s="4">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="I126" s="4">
-        <f>AVERAGE(I121:I125)</f>
-        <v>2.9795217999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C137" s="4">
-        <v>1.2400000000000001E-4</v>
-      </c>
-      <c r="D137" s="4">
-        <v>2.0960000000000002E-3</v>
-      </c>
-      <c r="E137" s="4">
-        <v>2.1219999999999999E-2</v>
-      </c>
-      <c r="F137" s="4">
-        <v>0.187307</v>
-      </c>
-      <c r="G137" s="4">
-        <v>1.6350420000000001</v>
-      </c>
-      <c r="H137" s="4">
-        <v>6.1908139999999996</v>
-      </c>
-      <c r="I137" s="4">
-        <v>13.55222</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C138" s="4">
-        <v>2.02E-4</v>
-      </c>
-      <c r="D138" s="4">
-        <v>2.0600000000000002E-3</v>
-      </c>
-      <c r="E138" s="4">
-        <v>2.0438999999999999E-2</v>
-      </c>
-      <c r="F138" s="4">
-        <v>0.19494800000000001</v>
-      </c>
-      <c r="G138" s="4">
-        <v>1.6875659999999999</v>
-      </c>
-      <c r="H138" s="4">
-        <v>6.8707710000000004</v>
-      </c>
-      <c r="I138" s="4">
-        <v>13.861660000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C139" s="4">
-        <v>1.2400000000000001E-4</v>
-      </c>
-      <c r="D139" s="4">
-        <v>2.3630000000000001E-3</v>
-      </c>
-      <c r="E139" s="4">
-        <v>2.1440000000000001E-2</v>
-      </c>
-      <c r="F139" s="4">
-        <v>0.19031999999999999</v>
-      </c>
-      <c r="G139" s="4">
-        <v>1.651249</v>
-      </c>
-      <c r="H139" s="4">
-        <v>7.0079079999999996</v>
-      </c>
-      <c r="I139" s="4">
-        <v>12.840194</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" s="8">
-        <f t="shared" ref="C140:I140" si="5">AVERAGE(C137:C139)</f>
+      <c r="BN113" s="8">
+        <f t="shared" ref="BN113:BT113" si="5">AVERAGE(BN110:BN112)</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="D140" s="8">
+      <c r="BO113" s="8">
         <f t="shared" si="5"/>
         <v>2.173E-3</v>
       </c>
-      <c r="E140" s="8">
+      <c r="BP113" s="8">
         <f t="shared" si="5"/>
         <v>2.1033E-2</v>
       </c>
-      <c r="F140" s="8">
+      <c r="BQ113" s="8">
         <f t="shared" si="5"/>
         <v>0.19085833333333335</v>
       </c>
-      <c r="G140" s="8">
+      <c r="BR113" s="8">
         <f t="shared" si="5"/>
         <v>1.6579523333333333</v>
       </c>
-      <c r="H140" s="8">
+      <c r="BS113" s="8">
         <f t="shared" si="5"/>
         <v>6.6898310000000007</v>
       </c>
-      <c r="I140" s="8">
+      <c r="BT113" s="8">
         <f t="shared" si="5"/>
         <v>13.418024666666668</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C141" s="4">
+    <row r="114" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG114" s="4">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="AH114" s="4">
+        <v>3.1350000000000002E-3</v>
+      </c>
+      <c r="AI114" s="4">
+        <v>3.0988000000000002E-2</v>
+      </c>
+      <c r="AJ114" s="4">
+        <v>0.28859099999999999</v>
+      </c>
+      <c r="AK114" s="4">
+        <v>2.3925200000000002</v>
+      </c>
+      <c r="AL114" s="4"/>
+      <c r="AM114" s="4">
+        <v>20.809104999999999</v>
+      </c>
+      <c r="BN114" s="4">
         <v>3.1E-4</v>
       </c>
-      <c r="D141" s="4">
+      <c r="BO114" s="4">
         <v>1.1590000000000001E-3</v>
       </c>
-      <c r="E141" s="4">
+      <c r="BP114" s="4">
         <v>1.1063999999999999E-2</v>
       </c>
-      <c r="F141" s="4">
+      <c r="BQ114" s="4">
         <v>0.103341</v>
       </c>
-      <c r="G141" s="4">
+      <c r="BR114" s="4">
         <v>0.92920700000000001</v>
       </c>
-      <c r="H141" s="4">
+      <c r="BS114" s="4">
         <v>4.0346659999999996</v>
       </c>
-      <c r="I141" s="4">
+      <c r="BT114" s="4">
         <v>7.9966699999999999</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C142" s="4">
+    <row r="115" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG115" s="4">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="AH115" s="4">
+        <v>3.1510000000000002E-3</v>
+      </c>
+      <c r="AI115" s="4">
+        <v>3.1073E-2</v>
+      </c>
+      <c r="AJ115" s="4">
+        <v>0.28927700000000001</v>
+      </c>
+      <c r="AK115" s="4">
+        <v>2.3922819999999998</v>
+      </c>
+      <c r="AL115" s="4"/>
+      <c r="AM115" s="4">
+        <v>20.915330999999998</v>
+      </c>
+      <c r="BN115" s="4">
         <v>3.2400000000000001E-4</v>
       </c>
-      <c r="D142" s="4">
+      <c r="BO115" s="4">
         <v>1.2080000000000001E-3</v>
       </c>
-      <c r="E142" s="4">
+      <c r="BP115" s="4">
         <v>1.1934E-2</v>
       </c>
-      <c r="F142" s="4">
+      <c r="BQ115" s="4">
         <v>0.108586</v>
       </c>
-      <c r="G142" s="4">
+      <c r="BR115" s="4">
         <v>0.89215100000000003</v>
       </c>
-      <c r="H142" s="4">
+      <c r="BS115" s="4">
         <v>4.04697</v>
       </c>
-      <c r="I142" s="4">
+      <c r="BT115" s="4">
         <v>8.0185919999999999</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C143" s="4">
+    <row r="116" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG116" s="4">
+        <v>2.42E-4</v>
+      </c>
+      <c r="AH116" s="4">
+        <v>3.1120000000000002E-3</v>
+      </c>
+      <c r="AI116" s="4">
+        <v>3.0981000000000002E-2</v>
+      </c>
+      <c r="AJ116" s="4">
+        <v>0.28648099999999999</v>
+      </c>
+      <c r="AK116" s="4">
+        <v>2.3836689999999998</v>
+      </c>
+      <c r="AL116" s="4"/>
+      <c r="AM116" s="4">
+        <v>20.864477000000001</v>
+      </c>
+      <c r="BN116" s="4">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="D143" s="4">
+      <c r="BO116" s="4">
         <v>1.075E-3</v>
       </c>
-      <c r="E143" s="4">
+      <c r="BP116" s="4">
         <v>1.2619E-2</v>
       </c>
-      <c r="F143" s="4">
+      <c r="BQ116" s="4">
         <v>0.10908</v>
       </c>
-      <c r="G143" s="4">
+      <c r="BR116" s="4">
         <v>0.91465600000000002</v>
       </c>
-      <c r="H143" s="4">
+      <c r="BS116" s="4">
         <v>4.0455810000000003</v>
       </c>
-      <c r="I143" s="4">
+      <c r="BT116" s="4">
         <v>7.2171149999999997</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B144" s="1" t="s">
+    <row r="117" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG117" s="4">
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="AH117" s="4">
+        <v>3.0959999999999998E-3</v>
+      </c>
+      <c r="AI117" s="4">
+        <v>3.0849999999999999E-2</v>
+      </c>
+      <c r="AJ117" s="4">
+        <v>0.28945900000000002</v>
+      </c>
+      <c r="AK117" s="4">
+        <v>2.3900960000000002</v>
+      </c>
+      <c r="AL117" s="4"/>
+      <c r="AM117" s="4">
+        <v>20.831752000000002</v>
+      </c>
+      <c r="BM117" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C144" s="4">
-        <f t="shared" ref="C144:I144" si="6">AVERAGE(C141:C143)</f>
+      <c r="BN117" s="4">
+        <f t="shared" ref="BN117:BT117" si="6">AVERAGE(BN114:BN116)</f>
         <v>2.8800000000000001E-4</v>
       </c>
-      <c r="D144" s="4">
+      <c r="BO117" s="4">
         <f t="shared" si="6"/>
         <v>1.1473333333333333E-3</v>
       </c>
-      <c r="E144" s="4">
+      <c r="BP117" s="4">
         <f t="shared" si="6"/>
         <v>1.1872333333333332E-2</v>
       </c>
-      <c r="F144" s="4">
+      <c r="BQ117" s="4">
         <f t="shared" si="6"/>
         <v>0.10700233333333332</v>
       </c>
-      <c r="G144" s="4">
+      <c r="BR117" s="4">
         <f t="shared" si="6"/>
         <v>0.91200466666666669</v>
       </c>
-      <c r="H144" s="4">
+      <c r="BS117" s="4">
         <f t="shared" si="6"/>
         <v>4.0424056666666663</v>
       </c>
-      <c r="I144" s="4">
+      <c r="BT117" s="4">
         <f t="shared" si="6"/>
         <v>7.7441256666666662</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C145" s="4">
+    <row r="118" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG118" s="4">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="AH118" s="4">
+        <v>3.1210000000000001E-3</v>
+      </c>
+      <c r="AI118" s="4">
+        <v>3.0973000000000001E-2</v>
+      </c>
+      <c r="AJ118" s="4">
+        <v>0.29006399999999999</v>
+      </c>
+      <c r="AK118" s="4">
+        <v>2.38625</v>
+      </c>
+      <c r="AL118" s="4"/>
+      <c r="AM118" s="4">
+        <v>20.842518999999999</v>
+      </c>
+      <c r="BN118" s="4">
         <v>3.8499999999999998E-4</v>
       </c>
-      <c r="D145" s="4">
+      <c r="BO118" s="4">
         <v>5.8180000000000003E-3</v>
       </c>
-      <c r="E145" s="4">
+      <c r="BP118" s="4">
         <v>7.3359999999999996E-3</v>
       </c>
-      <c r="F145" s="4">
+      <c r="BQ118" s="4">
         <v>5.8002999999999999E-2</v>
       </c>
-      <c r="G145" s="4">
+      <c r="BR118" s="4">
         <v>0.54378000000000004</v>
       </c>
-      <c r="H145" s="4">
+      <c r="BS118" s="4">
         <v>2.3103669999999998</v>
       </c>
-      <c r="I145" s="4">
+      <c r="BT118" s="4">
         <v>4.3414380000000001</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C146" s="4">
+    <row r="119" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AF119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG119" s="4">
+        <f>AVERAGE(AG114:AG118)</f>
+        <v>2.4460000000000004E-4</v>
+      </c>
+      <c r="AH119" s="4">
+        <f>AVERAGE(AH114:AH118)</f>
+        <v>3.1229999999999999E-3</v>
+      </c>
+      <c r="AI119" s="4">
+        <f>AVERAGE(AI114:AI118)</f>
+        <v>3.0973000000000007E-2</v>
+      </c>
+      <c r="AJ119" s="4">
+        <f>AVERAGE(AJ114:AJ118)</f>
+        <v>0.28877440000000004</v>
+      </c>
+      <c r="AK119" s="4">
+        <f>AVERAGE(AK114:AK118)</f>
+        <v>2.3889634000000002</v>
+      </c>
+      <c r="AL119" s="4">
+        <v>10.516999999999999</v>
+      </c>
+      <c r="AM119" s="4">
+        <f>AVERAGE(AM114:AM118)</f>
+        <v>20.852636799999999</v>
+      </c>
+      <c r="BN119" s="4">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="D146" s="4">
+      <c r="BO119" s="4">
         <v>1.077E-3</v>
       </c>
-      <c r="E146" s="4">
+      <c r="BP119" s="4">
         <v>7.7549999999999997E-3</v>
       </c>
-      <c r="F146" s="4">
+      <c r="BQ119" s="4">
         <v>6.1719999999999997E-2</v>
       </c>
-      <c r="G146" s="4">
+      <c r="BR119" s="4">
         <v>0.47198699999999999</v>
       </c>
-      <c r="H146" s="4">
+      <c r="BS119" s="4">
         <v>2.281021</v>
       </c>
-      <c r="I146" s="4">
+      <c r="BT119" s="4">
         <v>4.4946130000000002</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C147" s="4">
+    <row r="120" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG120" s="4">
+        <v>2.0599999999999999E-4</v>
+      </c>
+      <c r="AH120" s="4">
+        <v>1.323E-3</v>
+      </c>
+      <c r="AI120" s="4">
+        <v>1.0122000000000001E-2</v>
+      </c>
+      <c r="AJ120" s="4">
+        <v>8.7137999999999993E-2</v>
+      </c>
+      <c r="AK120" s="4">
+        <v>0.76625699999999997</v>
+      </c>
+      <c r="AL120" s="4"/>
+      <c r="AM120" s="4">
+        <v>7.2524519999999999</v>
+      </c>
+      <c r="BN120" s="4">
         <v>1.89E-3</v>
       </c>
-      <c r="D147" s="4">
+      <c r="BO120" s="4">
         <v>1.7930000000000001E-3</v>
       </c>
-      <c r="E147" s="4">
+      <c r="BP120" s="4">
         <v>7.4989999999999996E-3</v>
       </c>
-      <c r="F147" s="4">
+      <c r="BQ120" s="4">
         <v>6.3965999999999995E-2</v>
       </c>
-      <c r="G147" s="4">
+      <c r="BR120" s="4">
         <v>0.54640299999999997</v>
       </c>
-      <c r="H147" s="4">
+      <c r="BS120" s="4">
         <v>2.341682</v>
       </c>
-      <c r="I147" s="4">
+      <c r="BT120" s="4">
         <v>3.7135370000000001</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B148" s="1" t="s">
+    <row r="121" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG121" s="4">
+        <v>2.22E-4</v>
+      </c>
+      <c r="AH121" s="4">
+        <v>1.3240000000000001E-3</v>
+      </c>
+      <c r="AI121" s="4">
+        <v>1.0182E-2</v>
+      </c>
+      <c r="AJ121" s="4">
+        <v>8.5405999999999996E-2</v>
+      </c>
+      <c r="AK121" s="4">
+        <v>0.76732199999999995</v>
+      </c>
+      <c r="AL121" s="4"/>
+      <c r="AM121" s="4">
+        <v>7.2466010000000001</v>
+      </c>
+      <c r="BM121" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="4">
-        <f t="shared" ref="C148:I148" si="7">AVERAGE(C145:C147)</f>
+      <c r="BN121" s="4">
+        <f t="shared" ref="BN121:BT121" si="7">AVERAGE(BN118:BN120)</f>
         <v>9.8333333333333324E-4</v>
       </c>
-      <c r="D148" s="4">
+      <c r="BO121" s="4">
         <f t="shared" si="7"/>
         <v>2.8959999999999997E-3</v>
       </c>
-      <c r="E148" s="4">
+      <c r="BP121" s="4">
         <f t="shared" si="7"/>
         <v>7.5299999999999994E-3</v>
       </c>
-      <c r="F148" s="4">
+      <c r="BQ121" s="4">
         <f t="shared" si="7"/>
         <v>6.1229666666666661E-2</v>
       </c>
-      <c r="G148" s="4">
+      <c r="BR121" s="4">
         <f t="shared" si="7"/>
         <v>0.52072333333333332</v>
       </c>
-      <c r="H148" s="4">
+      <c r="BS121" s="4">
         <f t="shared" si="7"/>
         <v>2.3110233333333334</v>
       </c>
-      <c r="I148" s="4">
+      <c r="BT121" s="4">
         <f t="shared" si="7"/>
         <v>4.1831960000000006</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C149" s="4">
+    <row r="122" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG122" s="4">
+        <v>2.0799999999999999E-4</v>
+      </c>
+      <c r="AH122" s="4">
+        <v>1.343E-3</v>
+      </c>
+      <c r="AI122" s="4">
+        <v>1.0318000000000001E-2</v>
+      </c>
+      <c r="AJ122" s="4">
+        <v>8.634E-2</v>
+      </c>
+      <c r="AK122" s="4">
+        <v>0.76908200000000004</v>
+      </c>
+      <c r="AL122" s="4"/>
+      <c r="AM122" s="4">
+        <v>7.2423019999999996</v>
+      </c>
+      <c r="BN122" s="4">
         <v>2.415E-3</v>
       </c>
-      <c r="D149" s="4">
+      <c r="BO122" s="4">
         <v>3.359E-3</v>
       </c>
-      <c r="E149" s="4">
+      <c r="BP122" s="4">
         <v>8.7589999999999994E-3</v>
       </c>
-      <c r="F149" s="4">
+      <c r="BQ122" s="4">
         <v>4.4935999999999997E-2</v>
       </c>
-      <c r="G149" s="4">
+      <c r="BR122" s="4">
         <v>0.328482</v>
       </c>
-      <c r="H149" s="4">
+      <c r="BS122" s="4">
         <v>1.4175500000000001</v>
       </c>
-      <c r="I149" s="4">
+      <c r="BT122" s="4">
         <v>2.7589769999999998</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C150" s="4">
+    <row r="123" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG123" s="4">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="AH123" s="4">
+        <v>1.317E-3</v>
+      </c>
+      <c r="AI123" s="4">
+        <v>1.0101000000000001E-2</v>
+      </c>
+      <c r="AJ123" s="4">
+        <v>8.5615999999999998E-2</v>
+      </c>
+      <c r="AK123" s="4">
+        <v>0.76640299999999995</v>
+      </c>
+      <c r="AL123" s="4"/>
+      <c r="AM123" s="4">
+        <v>7.251919</v>
+      </c>
+      <c r="BN123" s="4">
         <v>4.5469999999999998E-3</v>
       </c>
-      <c r="D150" s="4">
+      <c r="BO123" s="4">
         <v>1.431E-3</v>
       </c>
-      <c r="E150" s="4">
+      <c r="BP123" s="4">
         <v>7.0540000000000004E-3</v>
       </c>
-      <c r="F150" s="4">
+      <c r="BQ123" s="4">
         <v>4.0715000000000001E-2</v>
       </c>
-      <c r="G150" s="4">
+      <c r="BR123" s="4">
         <v>0.35720200000000002</v>
       </c>
-      <c r="H150" s="4">
+      <c r="BS123" s="4">
         <v>1.5259160000000001</v>
       </c>
-      <c r="I150" s="4">
+      <c r="BT123" s="4">
         <v>2.827137</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C151" s="4">
+    <row r="124" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG124" s="4">
+        <v>1.95E-4</v>
+      </c>
+      <c r="AH124" s="4">
+        <v>1.3179999999999999E-3</v>
+      </c>
+      <c r="AI124" s="4">
+        <v>1.0423E-2</v>
+      </c>
+      <c r="AJ124" s="4">
+        <v>8.5740999999999998E-2</v>
+      </c>
+      <c r="AK124" s="4">
+        <v>0.76641000000000004</v>
+      </c>
+      <c r="AL124" s="4"/>
+      <c r="AM124" s="4">
+        <v>7.2602060000000002</v>
+      </c>
+      <c r="BN124" s="4">
         <v>2.0449999999999999E-3</v>
       </c>
-      <c r="D151" s="4">
+      <c r="BO124" s="4">
         <v>1.8439999999999999E-3</v>
       </c>
-      <c r="E151" s="4">
+      <c r="BP124" s="4">
         <v>7.8359999999999992E-3</v>
       </c>
-      <c r="F151" s="4">
+      <c r="BQ124" s="4">
         <v>4.1244000000000003E-2</v>
       </c>
-      <c r="G151" s="4">
+      <c r="BR124" s="4">
         <v>0.35577999999999999</v>
       </c>
-      <c r="H151" s="4">
+      <c r="BS124" s="4">
         <v>1.5435989999999999</v>
       </c>
-      <c r="I151" s="4">
+      <c r="BT124" s="4">
         <v>2.8059509999999999</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B152" s="1" t="s">
+    <row r="125" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AF125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG125" s="4">
+        <f>AVERAGE(AG120:AG124)</f>
+        <v>2.0539999999999998E-4</v>
+      </c>
+      <c r="AH125" s="4">
+        <f>AVERAGE(AH120:AH124)</f>
+        <v>1.3250000000000002E-3</v>
+      </c>
+      <c r="AI125" s="4">
+        <f>AVERAGE(AI120:AI124)</f>
+        <v>1.0229200000000001E-2</v>
+      </c>
+      <c r="AJ125" s="4">
+        <f>AVERAGE(AJ120:AJ124)</f>
+        <v>8.6048200000000005E-2</v>
+      </c>
+      <c r="AK125" s="4">
+        <f>AVERAGE(AK120:AK124)</f>
+        <v>0.76709479999999997</v>
+      </c>
+      <c r="AL125" s="4">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="AM125" s="4">
+        <f>AVERAGE(AM120:AM124)</f>
+        <v>7.2506959999999996</v>
+      </c>
+      <c r="BM125" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C152" s="4">
-        <f t="shared" ref="C152:I152" si="8">AVERAGE(C149:C151)</f>
+      <c r="BN125" s="4">
+        <f t="shared" ref="BN125:BT125" si="8">AVERAGE(BN122:BN124)</f>
         <v>3.002333333333333E-3</v>
       </c>
-      <c r="D152" s="4">
+      <c r="BO125" s="4">
         <f t="shared" si="8"/>
         <v>2.2113333333333334E-3</v>
       </c>
-      <c r="E152" s="4">
+      <c r="BP125" s="4">
         <f t="shared" si="8"/>
         <v>7.8829999999999994E-3</v>
       </c>
-      <c r="F152" s="4">
+      <c r="BQ125" s="4">
         <f t="shared" si="8"/>
         <v>4.2298333333333334E-2</v>
       </c>
-      <c r="G152" s="4">
+      <c r="BR125" s="4">
         <f t="shared" si="8"/>
         <v>0.34715466666666667</v>
       </c>
-      <c r="H152" s="4">
+      <c r="BS125" s="4">
         <f t="shared" si="8"/>
         <v>1.4956883333333331</v>
       </c>
-      <c r="I152" s="4">
+      <c r="BT125" s="4">
         <f t="shared" si="8"/>
         <v>2.797355</v>
+      </c>
+    </row>
+    <row r="126" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG126" s="4">
+        <v>3.7199999999999999E-4</v>
+      </c>
+      <c r="AH126" s="4">
+        <v>1.6360000000000001E-3</v>
+      </c>
+      <c r="AI126" s="4">
+        <v>1.2779E-2</v>
+      </c>
+      <c r="AJ126" s="4">
+        <v>0.11734600000000001</v>
+      </c>
+      <c r="AK126" s="4">
+        <v>0.88089399999999995</v>
+      </c>
+      <c r="AL126" s="4"/>
+      <c r="AM126" s="4">
+        <v>8.1165009999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG127" s="4">
+        <v>3.7300000000000001E-4</v>
+      </c>
+      <c r="AH127" s="4">
+        <v>1.629E-3</v>
+      </c>
+      <c r="AI127" s="4">
+        <v>1.2781000000000001E-2</v>
+      </c>
+      <c r="AJ127" s="4">
+        <v>9.3145000000000006E-2</v>
+      </c>
+      <c r="AK127" s="4">
+        <v>0.83774099999999996</v>
+      </c>
+      <c r="AL127" s="4"/>
+      <c r="AM127" s="4">
+        <v>8.1190130000000007</v>
+      </c>
+    </row>
+    <row r="128" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="AG128" s="4">
+        <v>3.7100000000000002E-4</v>
+      </c>
+      <c r="AH128" s="4">
+        <v>1.6379999999999999E-3</v>
+      </c>
+      <c r="AI128" s="4">
+        <v>1.2772E-2</v>
+      </c>
+      <c r="AJ128" s="4">
+        <v>9.2565999999999996E-2</v>
+      </c>
+      <c r="AK128" s="4">
+        <v>0.83778699999999995</v>
+      </c>
+      <c r="AL128" s="4"/>
+      <c r="AM128" s="4">
+        <v>8.1176119999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG129" s="4">
+        <v>3.77E-4</v>
+      </c>
+      <c r="AH129" s="4">
+        <v>1.616E-3</v>
+      </c>
+      <c r="AI129" s="4">
+        <v>1.2756999999999999E-2</v>
+      </c>
+      <c r="AJ129" s="4">
+        <v>9.2656000000000002E-2</v>
+      </c>
+      <c r="AK129" s="4">
+        <v>0.83715200000000001</v>
+      </c>
+      <c r="AL129" s="4"/>
+      <c r="AM129" s="4">
+        <v>8.1174800000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG130" s="4">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="AH130" s="4">
+        <v>1.632E-3</v>
+      </c>
+      <c r="AI130" s="4">
+        <v>1.2779E-2</v>
+      </c>
+      <c r="AJ130" s="4">
+        <v>9.2516000000000001E-2</v>
+      </c>
+      <c r="AK130" s="4">
+        <v>0.83665299999999998</v>
+      </c>
+      <c r="AL130" s="4"/>
+      <c r="AM130" s="4">
+        <v>8.1267019999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AF131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG131" s="4">
+        <f>AVERAGE(AG126:AG130)</f>
+        <v>3.726E-4</v>
+      </c>
+      <c r="AH131" s="4">
+        <f>AVERAGE(AH126:AH130)</f>
+        <v>1.6302000000000001E-3</v>
+      </c>
+      <c r="AI131" s="4">
+        <f>AVERAGE(AI126:AI130)</f>
+        <v>1.27736E-2</v>
+      </c>
+      <c r="AJ131" s="4">
+        <f>AVERAGE(AJ126:AJ130)</f>
+        <v>9.7645800000000005E-2</v>
+      </c>
+      <c r="AK131" s="4">
+        <f>AVERAGE(AK126:AK130)</f>
+        <v>0.84604540000000006</v>
+      </c>
+      <c r="AL131" s="4">
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="AM131" s="4">
+        <f>AVERAGE(AM126:AM130)</f>
+        <v>8.1194616000000011</v>
+      </c>
+    </row>
+    <row r="132" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG132" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AH132" s="4">
+        <v>1.6919999999999999E-3</v>
+      </c>
+      <c r="AI132" s="4">
+        <v>9.7680000000000006E-3</v>
+      </c>
+      <c r="AJ132" s="4">
+        <v>7.7304999999999999E-2</v>
+      </c>
+      <c r="AK132" s="4">
+        <v>0.66856199999999999</v>
+      </c>
+      <c r="AL132" s="4"/>
+      <c r="AM132" s="4">
+        <v>6.7299170000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG133" s="4">
+        <v>6.1799999999999995E-4</v>
+      </c>
+      <c r="AH133" s="4">
+        <v>1.5150000000000001E-3</v>
+      </c>
+      <c r="AI133" s="4">
+        <v>9.6179999999999998E-3</v>
+      </c>
+      <c r="AJ133" s="4">
+        <v>7.7460000000000001E-2</v>
+      </c>
+      <c r="AK133" s="4">
+        <v>0.66788999999999998</v>
+      </c>
+      <c r="AL133" s="4"/>
+      <c r="AM133" s="4">
+        <v>6.720961</v>
+      </c>
+    </row>
+    <row r="134" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG134" s="4">
+        <v>6.8199999999999999E-4</v>
+      </c>
+      <c r="AH134" s="4">
+        <v>1.598E-3</v>
+      </c>
+      <c r="AI134" s="4">
+        <v>9.6279999999999994E-3</v>
+      </c>
+      <c r="AJ134" s="4">
+        <v>7.5887999999999997E-2</v>
+      </c>
+      <c r="AK134" s="4">
+        <v>0.66789399999999999</v>
+      </c>
+      <c r="AL134" s="4"/>
+      <c r="AM134" s="4">
+        <v>6.7146660000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG135" s="4">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="AH135" s="4">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="AI135" s="4">
+        <v>9.5659999999999999E-3</v>
+      </c>
+      <c r="AJ135" s="4">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="AK135" s="4">
+        <v>0.668014</v>
+      </c>
+      <c r="AL135" s="4"/>
+      <c r="AM135" s="4">
+        <v>6.7464050000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG136" s="4">
+        <v>6.4300000000000002E-4</v>
+      </c>
+      <c r="AH136" s="4">
+        <v>1.598E-3</v>
+      </c>
+      <c r="AI136" s="4">
+        <v>9.8429999999999993E-3</v>
+      </c>
+      <c r="AJ136" s="4">
+        <v>7.4579999999999994E-2</v>
+      </c>
+      <c r="AK136" s="4">
+        <v>0.66871100000000006</v>
+      </c>
+      <c r="AL136" s="4"/>
+      <c r="AM136" s="4">
+        <v>6.7349220000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AF137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG137" s="4">
+        <f>AVERAGE(AG132:AG136)</f>
+        <v>7.2459999999999994E-4</v>
+      </c>
+      <c r="AH137" s="4">
+        <f>AVERAGE(AH132:AH136)</f>
+        <v>1.5391999999999999E-3</v>
+      </c>
+      <c r="AI137" s="4">
+        <f>AVERAGE(AI132:AI136)</f>
+        <v>9.6845999999999981E-3</v>
+      </c>
+      <c r="AJ137" s="4">
+        <f>AVERAGE(AJ132:AJ136)</f>
+        <v>7.7296599999999993E-2</v>
+      </c>
+      <c r="AK137" s="4">
+        <f>AVERAGE(AK132:AK136)</f>
+        <v>0.66821419999999998</v>
+      </c>
+      <c r="AL137" s="4">
+        <v>3.469411</v>
+      </c>
+      <c r="AM137" s="4">
+        <f>AVERAGE(AM132:AM136)</f>
+        <v>6.7293741999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG138" s="4"/>
+      <c r="AH138" s="4"/>
+      <c r="AI138" s="4"/>
+      <c r="AJ138" s="4"/>
+      <c r="AK138" s="4">
+        <v>0.45109500000000002</v>
+      </c>
+      <c r="AL138" s="4"/>
+      <c r="AM138" s="4">
+        <v>3.9921630000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG139" s="4"/>
+      <c r="AH139" s="4"/>
+      <c r="AI139" s="4"/>
+      <c r="AJ139" s="4"/>
+      <c r="AK139" s="4">
+        <v>0.45226899999999998</v>
+      </c>
+      <c r="AL139" s="4"/>
+      <c r="AM139" s="4">
+        <v>3.9852110000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG140" s="4"/>
+      <c r="AH140" s="4"/>
+      <c r="AI140" s="4"/>
+      <c r="AJ140" s="4"/>
+      <c r="AK140" s="4">
+        <v>0.45232699999999998</v>
+      </c>
+      <c r="AL140" s="4"/>
+      <c r="AM140" s="4">
+        <v>3.9918779999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG141" s="4"/>
+      <c r="AH141" s="4"/>
+      <c r="AI141" s="4"/>
+      <c r="AJ141" s="4"/>
+      <c r="AK141" s="4">
+        <v>0.45219599999999999</v>
+      </c>
+      <c r="AL141" s="4"/>
+      <c r="AM141" s="4">
+        <v>3.9888370000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG142" s="4"/>
+      <c r="AH142" s="4"/>
+      <c r="AI142" s="4"/>
+      <c r="AJ142" s="4"/>
+      <c r="AK142" s="4">
+        <v>0.44864500000000002</v>
+      </c>
+      <c r="AL142" s="4"/>
+      <c r="AM142" s="4">
+        <v>3.9991219999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AF143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG143" s="4">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="AH143" s="4">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="AI143" s="4">
+        <v>5.9040000000000004E-3</v>
+      </c>
+      <c r="AJ143" s="4">
+        <v>5.0375999999999997E-2</v>
+      </c>
+      <c r="AK143" s="4">
+        <f>AVERAGE(AK138:AK142)</f>
+        <v>0.4513064</v>
+      </c>
+      <c r="AL143" s="4">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="AM143" s="4">
+        <f>AVERAGE(AM138:AM142)</f>
+        <v>3.9914422000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG144" s="4"/>
+      <c r="AH144" s="4"/>
+      <c r="AI144" s="4"/>
+      <c r="AJ144" s="4"/>
+      <c r="AK144" s="4"/>
+      <c r="AL144" s="4"/>
+      <c r="AM144" s="4">
+        <v>2.98109</v>
+      </c>
+    </row>
+    <row r="145" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG145" s="4"/>
+      <c r="AH145" s="4"/>
+      <c r="AI145" s="4"/>
+      <c r="AJ145" s="4"/>
+      <c r="AK145" s="4"/>
+      <c r="AL145" s="4"/>
+      <c r="AM145" s="4">
+        <v>2.9703339999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG146" s="4"/>
+      <c r="AH146" s="4"/>
+      <c r="AI146" s="4"/>
+      <c r="AJ146" s="4"/>
+      <c r="AK146" s="4"/>
+      <c r="AL146" s="4"/>
+      <c r="AM146" s="4">
+        <v>2.9968689999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG147" s="4"/>
+      <c r="AH147" s="4"/>
+      <c r="AI147" s="4"/>
+      <c r="AJ147" s="4"/>
+      <c r="AK147" s="4"/>
+      <c r="AL147" s="4"/>
+      <c r="AM147" s="4">
+        <v>2.9746809999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AG148" s="4"/>
+      <c r="AH148" s="4"/>
+      <c r="AI148" s="4"/>
+      <c r="AJ148" s="4"/>
+      <c r="AK148" s="4"/>
+      <c r="AL148" s="4"/>
+      <c r="AM148" s="4">
+        <v>2.9746350000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="AF149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG149" s="4">
+        <v>4.08E-4</v>
+      </c>
+      <c r="AH149" s="4">
+        <v>7.2800000000000002E-4</v>
+      </c>
+      <c r="AI149" s="4">
+        <v>4.2379999999999996E-3</v>
+      </c>
+      <c r="AJ149" s="4">
+        <v>3.0557000000000001E-2</v>
+      </c>
+      <c r="AK149" s="4">
+        <v>0.28589599999999998</v>
+      </c>
+      <c r="AL149" s="4">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="AM149" s="4">
+        <f>AVERAGE(AM144:AM148)</f>
+        <v>2.9795217999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Dati Computazionali.xlsx
+++ b/Docs/Dati Computazionali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valerio\OneDrive - clstdio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6C3EA3-4891-4BB7-9E92-1D4929F78A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56FAAAD-25CE-4A24-964A-F1764020CAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="9630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>Test  sul numero di Pattern</t>
   </si>
@@ -379,6 +379,12 @@
   <si>
     <t>500000 + 300500 + 300000</t>
   </si>
+  <si>
+    <t>OpenMP (32)</t>
+  </si>
+  <si>
+    <t>OpenMP (64)</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
@@ -430,6 +436,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1921,7 +1931,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$56</c:f>
+              <c:f>Foglio1!$J$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2027,30 +2037,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$56:$Q$56</c:f>
+              <c:f>Foglio1!$K$78:$Q$78</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.0190666666666666E-2</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12082933333333334</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88490199999999997</c:v>
+                  <c:v>1.5760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4869400000000006</c:v>
+                  <c:v>15.335000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.336545666666666</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.204531000000003</c:v>
+                  <c:v>153.101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167.30635600000002</c:v>
+                  <c:v>306.976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2077,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$40</c:f>
+              <c:f>Foglio1!$J$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (2)</c:v>
+                  <c:v>OpenMP (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2173,30 +2183,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$40:$Q$40</c:f>
+              <c:f>Foglio1!$K$62:$Q$62</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.1382666666666664E-2</c:v>
+                  <c:v>2.2793000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1911666666666663E-2</c:v>
+                  <c:v>5.7149999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47462633333333332</c:v>
+                  <c:v>0.40992800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4873586666666663</c:v>
+                  <c:v>3.9437579999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.118409</c:v>
+                  <c:v>19.959036999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.250533999999995</c:v>
+                  <c:v>39.318178000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.489558666666667</c:v>
+                  <c:v>83.497208999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,11 +2223,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$44</c:f>
+              <c:f>Foglio1!$J$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (4)</c:v>
+                  <c:v>OpenMP (8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2319,30 +2329,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$44:$Q$44</c:f>
+              <c:f>Foglio1!$K$66:$Q$66</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.3275666666666667E-2</c:v>
+                  <c:v>1.67E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4182333333333335E-2</c:v>
+                  <c:v>3.3841999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.258575</c:v>
+                  <c:v>0.21901100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4480576666666667</c:v>
+                  <c:v>2.0299170000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.555991333333333</c:v>
+                  <c:v>10.088718999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.792638333333333</c:v>
+                  <c:v>19.910865000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.288673333333328</c:v>
+                  <c:v>39.634937999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,11 +2369,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$48</c:f>
+              <c:f>Foglio1!$J$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (8)</c:v>
+                  <c:v>OpenMP (16)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2465,30 +2475,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$48:$Q$48</c:f>
+              <c:f>Foglio1!$K$70:$Q$70</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.0519999999999993E-3</c:v>
+                  <c:v>1.3134E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6962E-2</c:v>
+                  <c:v>1.9408000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17428600000000002</c:v>
+                  <c:v>0.11361400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7036870000000002</c:v>
+                  <c:v>1.056997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6261933333333349</c:v>
+                  <c:v>5.1048429999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.150846000000001</c:v>
+                  <c:v>10.671744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.313034999999999</c:v>
+                  <c:v>20.914171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2505,11 +2515,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$J$52</c:f>
+              <c:f>Foglio1!$J$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (16)</c:v>
+                  <c:v>OpenMP (32)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2611,30 +2621,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$K$52:$Q$52</c:f>
+              <c:f>Foglio1!$K$74:$Q$74</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.3523333333333349E-3</c:v>
+                  <c:v>1.1551000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2310333333333331E-2</c:v>
+                  <c:v>1.8381000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15278033333333332</c:v>
+                  <c:v>6.9893999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5013586666666665</c:v>
+                  <c:v>0.581762</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4518813333333327</c:v>
+                  <c:v>2.8485469999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.945991999999999</c:v>
+                  <c:v>5.6277189999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.898687666666664</c:v>
+                  <c:v>12.099769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,6 +2653,103 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7D5-4CA1-9507-6FBAEF811953}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$J$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP (64)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$K$29:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$K$82:$Q$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3806000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0768999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36882900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7258599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5303019999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3756940000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDC2-43F2-AD55-FC46FC4A406E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4156,7 +4263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$BM$113</c:f>
+              <c:f>Foglio1!$BM$131</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4262,30 +4369,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$BN$113:$BT$113</c:f>
+              <c:f>Foglio1!$BN$131:$BT$131</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-4</c:v>
+                  <c:v>2.4459999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.173E-3</c:v>
+                  <c:v>3.1229999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1033E-2</c:v>
+                  <c:v>3.0973000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19085833333333335</c:v>
+                  <c:v>0.28877439999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6579523333333333</c:v>
+                  <c:v>2.3889634000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6898310000000007</c:v>
+                  <c:v>10.516999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.418024666666668</c:v>
+                  <c:v>20.852636799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,11 +4409,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$BM$117</c:f>
+              <c:f>Foglio1!$BM$135</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (2)</c:v>
+                  <c:v>OpenMP (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4408,30 +4515,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$BN$117:$BT$117</c:f>
+              <c:f>Foglio1!$BN$135:$BT$135</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.8800000000000001E-4</c:v>
+                  <c:v>6.2600000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1473333333333333E-3</c:v>
+                  <c:v>1.1559999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1872333333333332E-2</c:v>
+                  <c:v>8.9499999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10700233333333332</c:v>
+                  <c:v>8.2472000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91200466666666669</c:v>
+                  <c:v>0.65457900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0424056666666663</c:v>
+                  <c:v>2.8862920000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7441256666666662</c:v>
+                  <c:v>5.5332670000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,11 +4555,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$BM$121</c:f>
+              <c:f>Foglio1!$BM$139</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (4)</c:v>
+                  <c:v>OpenMP (8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4554,30 +4661,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$BN$121:$BT$121</c:f>
+              <c:f>Foglio1!$BN$139:$BT$139</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.8333333333333324E-4</c:v>
+                  <c:v>1.6249999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8959999999999997E-3</c:v>
+                  <c:v>1.036E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5299999999999994E-3</c:v>
+                  <c:v>8.8310000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1229666666666661E-2</c:v>
+                  <c:v>4.3790999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52072333333333332</c:v>
+                  <c:v>0.36402800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3110233333333334</c:v>
+                  <c:v>1.555855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1831960000000006</c:v>
+                  <c:v>3.038033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4594,11 +4701,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$BM$125</c:f>
+              <c:f>Foglio1!$BM$143</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (8)</c:v>
+                  <c:v>OpenMP (16)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4700,30 +4807,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$BN$125:$BT$125</c:f>
+              <c:f>Foglio1!$BN$143:$BT$143</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.002333333333333E-3</c:v>
+                  <c:v>4.4539999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2113333333333334E-3</c:v>
+                  <c:v>1.784E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8829999999999994E-3</c:v>
+                  <c:v>4.1489999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2298333333333334E-2</c:v>
+                  <c:v>2.8105999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34715466666666667</c:v>
+                  <c:v>0.21088699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4956883333333331</c:v>
+                  <c:v>0.87304099999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.797355</c:v>
+                  <c:v>1.8128839999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,6 +4839,144 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8BF8-4698-97FD-5828F5F717F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$BM$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP (32)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$BN$147:$BT$147</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.1259999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0159999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8180000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9111000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14658499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55649499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1137159999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EC0-4AF3-A642-72CA9CB9786F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$BM$151</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP (64)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$BN$151:$BT$151</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2348E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1531E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.607E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4392E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41638500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85536299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EC0-4AF3-A642-72CA9CB9786F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4791,8 +5036,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.0454603564214701E-2"/>
-              <c:y val="0.75202335826247302"/>
+              <c:x val="1.530576377393464E-2"/>
+              <c:y val="0.75380175903997781"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6355,25 +6600,25 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.9100000000000001E-4</c:v>
+                  <c:v>1.226E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1850000000000004E-3</c:v>
+                  <c:v>4.5786000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43378800000000001</c:v>
+                  <c:v>0.41784840000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4697089999999999</c:v>
+                  <c:v>4.0442650000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.976589000000001</c:v>
+                  <c:v>29.169322000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.381278999999999</c:v>
+                  <c:v>47.565446000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>455.26502499999998</c:v>
+                  <c:v>706.92577900000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6394,7 +6639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (2)</c:v>
+                  <c:v>OpenMP (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6500,25 +6745,25 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.3899999999999999E-4</c:v>
+                  <c:v>3.9100000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6429999999999999E-3</c:v>
+                  <c:v>2.2850000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.123178</c:v>
+                  <c:v>0.12928700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1941090000000001</c:v>
+                  <c:v>1.0401549999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.953106</c:v>
+                  <c:v>7.6698820000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.660847</c:v>
+                  <c:v>12.005228000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210.58185399999999</c:v>
+                  <c:v>181.91508999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6539,7 +6784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (4)</c:v>
+                  <c:v>OpenMP (8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6645,25 +6890,25 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.1900000000000001E-4</c:v>
+                  <c:v>7.6900000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.042E-3</c:v>
+                  <c:v>3.8430000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1519999999999998E-2</c:v>
+                  <c:v>6.4817E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87136899999999995</c:v>
+                  <c:v>0.53387899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7864550000000001</c:v>
+                  <c:v>3.8894980000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5036760000000005</c:v>
+                  <c:v>6.1138209999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122.24682199999999</c:v>
+                  <c:v>99.969859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6684,7 +6929,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP (8)</c:v>
+                  <c:v>OpenMP (16)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6790,25 +7035,25 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.5199999999999999E-4</c:v>
+                  <c:v>2.3890000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.085E-3</c:v>
+                  <c:v>4.4730000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7371999999999997E-2</c:v>
+                  <c:v>3.7659999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46357700000000002</c:v>
+                  <c:v>0.29723699999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2923260000000001</c:v>
+                  <c:v>2.4194930000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2658870000000002</c:v>
+                  <c:v>3.121346</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.119332</c:v>
+                  <c:v>48.923572999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6817,6 +7062,135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CF55-4276-A2F2-A3B030744056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CF$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP (32)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CG$41:$CM$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.5259999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2831E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5293E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.316519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8005310000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.542566000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0F4-4178-A67B-666D003C7275}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CF$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP (64)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CG$42:$CM$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3051999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.585E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8827999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0439400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0581020000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.267761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0F4-4178-A67B-666D003C7275}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7521,10 +7895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:CM149"/>
+  <dimension ref="A2:CM151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CF40" sqref="CF40:CM40"/>
+    <sheetView tabSelected="1" topLeftCell="CK27" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CQ52" sqref="CQ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7534,9 +7908,11 @@
     <col min="5" max="5" width="9.7265625" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.90625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.90625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.6328125" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.36328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.7265625" style="1" customWidth="1"/>
     <col min="39" max="39" width="11.36328125" style="1" customWidth="1"/>
     <col min="48" max="48" width="10.7265625" style="1" customWidth="1"/>
@@ -8619,29 +8995,29 @@
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
       <c r="BC37" s="4"/>
-      <c r="CF37" s="4" t="s">
+      <c r="CF37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="CG37" s="4">
-        <v>1.9100000000000001E-4</v>
-      </c>
-      <c r="CH37" s="4">
-        <v>6.1850000000000004E-3</v>
-      </c>
-      <c r="CI37" s="4">
-        <v>0.43378800000000001</v>
-      </c>
-      <c r="CJ37" s="4">
-        <v>4.4697089999999999</v>
-      </c>
-      <c r="CK37" s="4">
-        <v>31.976589000000001</v>
-      </c>
-      <c r="CL37" s="4">
-        <v>50.381278999999999</v>
-      </c>
-      <c r="CM37" s="4">
-        <v>455.26502499999998</v>
+      <c r="CG37" s="9">
+        <v>1.226E-4</v>
+      </c>
+      <c r="CH37" s="9">
+        <v>4.5786000000000004E-3</v>
+      </c>
+      <c r="CI37" s="9">
+        <v>0.41784840000000001</v>
+      </c>
+      <c r="CJ37" s="9">
+        <v>4.0442650000000002</v>
+      </c>
+      <c r="CK37" s="9">
+        <v>29.169322000000001</v>
+      </c>
+      <c r="CL37" s="9">
+        <v>47.565446000000001</v>
+      </c>
+      <c r="CM37" s="9">
+        <v>706.92577900000003</v>
       </c>
     </row>
     <row r="38" spans="2:91" x14ac:dyDescent="0.35">
@@ -8676,29 +9052,29 @@
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
       <c r="BC38" s="4"/>
-      <c r="CF38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CG38" s="4">
-        <v>1.3899999999999999E-4</v>
-      </c>
-      <c r="CH38" s="4">
-        <v>1.6429999999999999E-3</v>
-      </c>
-      <c r="CI38" s="4">
-        <v>0.123178</v>
-      </c>
-      <c r="CJ38" s="4">
-        <v>1.1941090000000001</v>
-      </c>
-      <c r="CK38" s="4">
-        <v>8.953106</v>
-      </c>
-      <c r="CL38" s="4">
-        <v>13.660847</v>
-      </c>
-      <c r="CM38" s="4">
-        <v>210.58185399999999</v>
+      <c r="CF38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG38" s="9">
+        <v>3.9100000000000002E-4</v>
+      </c>
+      <c r="CH38" s="9">
+        <v>2.2850000000000001E-3</v>
+      </c>
+      <c r="CI38" s="9">
+        <v>0.12928700000000001</v>
+      </c>
+      <c r="CJ38" s="9">
+        <v>1.0401549999999999</v>
+      </c>
+      <c r="CK38" s="9">
+        <v>7.6698820000000003</v>
+      </c>
+      <c r="CL38" s="9">
+        <v>12.005228000000001</v>
+      </c>
+      <c r="CM38" s="9">
+        <v>181.91508999999999</v>
       </c>
     </row>
     <row r="39" spans="2:91" x14ac:dyDescent="0.35">
@@ -8733,29 +9109,29 @@
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
       <c r="BC39" s="4"/>
-      <c r="CF39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG39" s="4">
-        <v>2.1900000000000001E-4</v>
-      </c>
-      <c r="CH39" s="4">
-        <v>1.042E-3</v>
-      </c>
-      <c r="CI39" s="4">
-        <v>6.1519999999999998E-2</v>
-      </c>
-      <c r="CJ39" s="4">
-        <v>0.87136899999999995</v>
-      </c>
-      <c r="CK39" s="4">
-        <v>4.7864550000000001</v>
-      </c>
-      <c r="CL39" s="4">
-        <v>8.5036760000000005</v>
-      </c>
-      <c r="CM39" s="4">
-        <v>122.24682199999999</v>
+      <c r="CF39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CG39" s="9">
+        <v>7.6900000000000004E-4</v>
+      </c>
+      <c r="CH39" s="9">
+        <v>3.8430000000000001E-3</v>
+      </c>
+      <c r="CI39" s="9">
+        <v>6.4817E-2</v>
+      </c>
+      <c r="CJ39" s="9">
+        <v>0.53387899999999999</v>
+      </c>
+      <c r="CK39" s="9">
+        <v>3.8894980000000001</v>
+      </c>
+      <c r="CL39" s="9">
+        <v>6.1138209999999997</v>
+      </c>
+      <c r="CM39" s="9">
+        <v>99.969859</v>
       </c>
     </row>
     <row r="40" spans="2:91" x14ac:dyDescent="0.35">
@@ -8800,29 +9176,29 @@
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
       <c r="BC40" s="4"/>
-      <c r="CF40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CG40" s="4">
-        <v>3.5199999999999999E-4</v>
-      </c>
-      <c r="CH40" s="4">
-        <v>1.085E-3</v>
-      </c>
-      <c r="CI40" s="4">
-        <v>4.7371999999999997E-2</v>
-      </c>
-      <c r="CJ40" s="4">
-        <v>0.46357700000000002</v>
-      </c>
-      <c r="CK40" s="4">
-        <v>3.2923260000000001</v>
-      </c>
-      <c r="CL40" s="4">
-        <v>5.2658870000000002</v>
-      </c>
-      <c r="CM40" s="4">
-        <v>79.119332</v>
+      <c r="CF40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG40" s="9">
+        <v>2.3890000000000001E-3</v>
+      </c>
+      <c r="CH40" s="9">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="CI40" s="9">
+        <v>3.7659999999999999E-2</v>
+      </c>
+      <c r="CJ40" s="9">
+        <v>0.29723699999999997</v>
+      </c>
+      <c r="CK40" s="9">
+        <v>2.4194930000000001</v>
+      </c>
+      <c r="CL40" s="9">
+        <v>3.121346</v>
+      </c>
+      <c r="CM40" s="9">
+        <v>48.923572999999998</v>
       </c>
     </row>
     <row r="41" spans="2:91" x14ac:dyDescent="0.35">
@@ -8860,6 +9236,30 @@
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
       <c r="BC41" s="4"/>
+      <c r="CF41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG41" s="9">
+        <v>4.5259999999999996E-3</v>
+      </c>
+      <c r="CH41" s="9">
+        <v>1.2831E-2</v>
+      </c>
+      <c r="CI41" s="9">
+        <v>2.5293E-2</v>
+      </c>
+      <c r="CJ41" s="9">
+        <v>0.16821</v>
+      </c>
+      <c r="CK41" s="9">
+        <v>1.316519</v>
+      </c>
+      <c r="CL41" s="9">
+        <v>1.8005310000000001</v>
+      </c>
+      <c r="CM41" s="9">
+        <v>26.542566000000001</v>
+      </c>
     </row>
     <row r="42" spans="2:91" x14ac:dyDescent="0.35">
       <c r="K42" s="7">
@@ -8907,6 +9307,30 @@
       </c>
       <c r="BC42" s="4">
         <v>97.555536000000004</v>
+      </c>
+      <c r="CF42" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG42" s="9">
+        <v>1.3051999999999999E-2</v>
+      </c>
+      <c r="CH42" s="9">
+        <v>1.585E-2</v>
+      </c>
+      <c r="CI42" s="9">
+        <v>2.8827999999999999E-2</v>
+      </c>
+      <c r="CJ42" s="9">
+        <v>0.11347</v>
+      </c>
+      <c r="CK42" s="9">
+        <v>1.0439400000000001</v>
+      </c>
+      <c r="CL42" s="9">
+        <v>1.0581020000000001</v>
+      </c>
+      <c r="CM42" s="9">
+        <v>16.267761</v>
       </c>
     </row>
     <row r="43" spans="2:91" x14ac:dyDescent="0.35">
@@ -9562,6 +9986,30 @@
       <c r="BC61" s="4"/>
     </row>
     <row r="62" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J62" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K62" s="9">
+        <v>2.2793000000000001E-2</v>
+      </c>
+      <c r="L62" s="9">
+        <v>5.7149999999999999E-2</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0.40992800000000001</v>
+      </c>
+      <c r="N62" s="9">
+        <v>3.9437579999999999</v>
+      </c>
+      <c r="O62" s="9">
+        <v>19.959036999999999</v>
+      </c>
+      <c r="P62" s="9">
+        <v>39.318178000000003</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>83.497208999999998</v>
+      </c>
       <c r="AV62" s="4"/>
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
@@ -9572,6 +10020,14 @@
       <c r="BC62" s="4"/>
     </row>
     <row r="63" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
       <c r="AV63" s="4"/>
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
@@ -9582,6 +10038,14 @@
       <c r="BC63" s="4"/>
     </row>
     <row r="64" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
       <c r="AV64" s="4"/>
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
@@ -9591,7 +10055,15 @@
       <c r="BB64" s="4"/>
       <c r="BC64" s="4"/>
     </row>
-    <row r="65" spans="48:55" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
       <c r="AV65" s="4"/>
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
@@ -9601,7 +10073,31 @@
       <c r="BB65" s="4"/>
       <c r="BC65" s="4"/>
     </row>
-    <row r="66" spans="48:55" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J66" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K66" s="9">
+        <v>1.67E-2</v>
+      </c>
+      <c r="L66" s="9">
+        <v>3.3841999999999997E-2</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0.21901100000000001</v>
+      </c>
+      <c r="N66" s="9">
+        <v>2.0299170000000002</v>
+      </c>
+      <c r="O66" s="9">
+        <v>10.088718999999999</v>
+      </c>
+      <c r="P66" s="9">
+        <v>19.910865000000001</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>39.634937999999998</v>
+      </c>
       <c r="AV66" s="4" t="s">
         <v>5</v>
       </c>
@@ -9625,6 +10121,230 @@
       </c>
       <c r="BC66" s="4">
         <v>13.079688000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+    </row>
+    <row r="68" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+    </row>
+    <row r="69" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+    </row>
+    <row r="70" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J70" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1.3134E-2</v>
+      </c>
+      <c r="L70" s="9">
+        <v>1.9408000000000002E-2</v>
+      </c>
+      <c r="M70" s="9">
+        <v>0.11361400000000001</v>
+      </c>
+      <c r="N70" s="9">
+        <v>1.056997</v>
+      </c>
+      <c r="O70" s="9">
+        <v>5.1048429999999998</v>
+      </c>
+      <c r="P70" s="9">
+        <v>10.671744</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>20.914171</v>
+      </c>
+    </row>
+    <row r="71" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+    </row>
+    <row r="73" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+    </row>
+    <row r="74" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K74" s="9">
+        <v>1.1551000000000001E-2</v>
+      </c>
+      <c r="L74" s="9">
+        <v>1.8381000000000002E-2</v>
+      </c>
+      <c r="M74" s="9">
+        <v>6.9893999999999998E-2</v>
+      </c>
+      <c r="N74" s="9">
+        <v>0.581762</v>
+      </c>
+      <c r="O74" s="9">
+        <v>2.8485469999999999</v>
+      </c>
+      <c r="P74" s="9">
+        <v>5.6277189999999999</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>12.099769</v>
+      </c>
+    </row>
+    <row r="75" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+    </row>
+    <row r="76" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+    </row>
+    <row r="77" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+    </row>
+    <row r="78" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J78" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K78" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="M78" s="9">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="N78" s="9">
+        <v>15.335000000000001</v>
+      </c>
+      <c r="O78" s="9">
+        <v>76</v>
+      </c>
+      <c r="P78" s="9">
+        <v>153.101</v>
+      </c>
+      <c r="Q78" s="9">
+        <v>306.976</v>
+      </c>
+    </row>
+    <row r="79" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="10:55" x14ac:dyDescent="0.35">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+    </row>
+    <row r="81" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+    </row>
+    <row r="82" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J82" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K82" s="9">
+        <v>1.3806000000000001E-2</v>
+      </c>
+      <c r="L82" s="9">
+        <v>2.0768999999999999E-2</v>
+      </c>
+      <c r="M82" s="9">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="N82" s="9">
+        <v>0.36882900000000002</v>
+      </c>
+      <c r="O82" s="9">
+        <v>1.7258599999999999</v>
+      </c>
+      <c r="P82" s="9">
+        <v>3.5303019999999998</v>
+      </c>
+      <c r="Q82" s="9">
+        <v>7.3756940000000002</v>
       </c>
     </row>
     <row r="110" spans="66:72" x14ac:dyDescent="0.35">
@@ -10369,7 +11089,7 @@
         <v>8.1176119999999994</v>
       </c>
     </row>
-    <row r="129" spans="32:39" x14ac:dyDescent="0.35">
+    <row r="129" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG129" s="4">
         <v>3.77E-4</v>
       </c>
@@ -10390,7 +11110,7 @@
         <v>8.1174800000000005</v>
       </c>
     </row>
-    <row r="130" spans="32:39" x14ac:dyDescent="0.35">
+    <row r="130" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG130" s="4">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -10411,7 +11131,7 @@
         <v>8.1267019999999999</v>
       </c>
     </row>
-    <row r="131" spans="32:39" x14ac:dyDescent="0.35">
+    <row r="131" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AF131" s="1" t="s">
         <v>4</v>
       </c>
@@ -10442,8 +11162,32 @@
         <f>AVERAGE(AM126:AM130)</f>
         <v>8.1194616000000011</v>
       </c>
-    </row>
-    <row r="132" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM131" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN131" s="10">
+        <v>2.4459999999999998E-4</v>
+      </c>
+      <c r="BO131" s="10">
+        <v>3.1229999999999999E-3</v>
+      </c>
+      <c r="BP131" s="10">
+        <v>3.0973000000000001E-2</v>
+      </c>
+      <c r="BQ131" s="10">
+        <v>0.28877439999999999</v>
+      </c>
+      <c r="BR131" s="10">
+        <v>2.3889634000000002</v>
+      </c>
+      <c r="BS131" s="10">
+        <v>10.516999999999999</v>
+      </c>
+      <c r="BT131" s="10">
+        <v>20.852636799999999</v>
+      </c>
+    </row>
+    <row r="132" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG132" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -10463,8 +11207,16 @@
       <c r="AM132" s="4">
         <v>6.7299170000000004</v>
       </c>
-    </row>
-    <row r="133" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM132" s="9"/>
+      <c r="BN132" s="9"/>
+      <c r="BO132" s="9"/>
+      <c r="BP132" s="9"/>
+      <c r="BQ132" s="9"/>
+      <c r="BR132" s="9"/>
+      <c r="BS132" s="9"/>
+      <c r="BT132" s="9"/>
+    </row>
+    <row r="133" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG133" s="4">
         <v>6.1799999999999995E-4</v>
       </c>
@@ -10484,8 +11236,16 @@
       <c r="AM133" s="4">
         <v>6.720961</v>
       </c>
-    </row>
-    <row r="134" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM133" s="9"/>
+      <c r="BN133" s="9"/>
+      <c r="BO133" s="9"/>
+      <c r="BP133" s="9"/>
+      <c r="BQ133" s="9"/>
+      <c r="BR133" s="9"/>
+      <c r="BS133" s="9"/>
+      <c r="BT133" s="9"/>
+    </row>
+    <row r="134" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG134" s="4">
         <v>6.8199999999999999E-4</v>
       </c>
@@ -10505,8 +11265,16 @@
       <c r="AM134" s="4">
         <v>6.7146660000000002</v>
       </c>
-    </row>
-    <row r="135" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM134" s="9"/>
+      <c r="BN134" s="9"/>
+      <c r="BO134" s="9"/>
+      <c r="BP134" s="9"/>
+      <c r="BQ134" s="9"/>
+      <c r="BR134" s="9"/>
+      <c r="BS134" s="9"/>
+      <c r="BT134" s="9"/>
+    </row>
+    <row r="135" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG135" s="4">
         <v>8.8000000000000003E-4</v>
       </c>
@@ -10526,8 +11294,32 @@
       <c r="AM135" s="4">
         <v>6.7464050000000002</v>
       </c>
-    </row>
-    <row r="136" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM135" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN135" s="9">
+        <v>6.2600000000000004E-4</v>
+      </c>
+      <c r="BO135" s="9">
+        <v>1.1559999999999999E-3</v>
+      </c>
+      <c r="BP135" s="9">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="BQ135" s="9">
+        <v>8.2472000000000004E-2</v>
+      </c>
+      <c r="BR135" s="9">
+        <v>0.65457900000000002</v>
+      </c>
+      <c r="BS135" s="9">
+        <v>2.8862920000000001</v>
+      </c>
+      <c r="BT135" s="9">
+        <v>5.5332670000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG136" s="4">
         <v>6.4300000000000002E-4</v>
       </c>
@@ -10547,8 +11339,16 @@
       <c r="AM136" s="4">
         <v>6.7349220000000001</v>
       </c>
-    </row>
-    <row r="137" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM136" s="9"/>
+      <c r="BN136" s="9"/>
+      <c r="BO136" s="9"/>
+      <c r="BP136" s="9"/>
+      <c r="BQ136" s="9"/>
+      <c r="BR136" s="9"/>
+      <c r="BS136" s="9"/>
+      <c r="BT136" s="9"/>
+    </row>
+    <row r="137" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AF137" s="1" t="s">
         <v>5</v>
       </c>
@@ -10579,8 +11379,16 @@
         <f>AVERAGE(AM132:AM136)</f>
         <v>6.7293741999999996</v>
       </c>
-    </row>
-    <row r="138" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM137" s="9"/>
+      <c r="BN137" s="9"/>
+      <c r="BO137" s="9"/>
+      <c r="BP137" s="9"/>
+      <c r="BQ137" s="9"/>
+      <c r="BR137" s="9"/>
+      <c r="BS137" s="9"/>
+      <c r="BT137" s="9"/>
+    </row>
+    <row r="138" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG138" s="4"/>
       <c r="AH138" s="4"/>
       <c r="AI138" s="4"/>
@@ -10592,8 +11400,16 @@
       <c r="AM138" s="4">
         <v>3.9921630000000001</v>
       </c>
-    </row>
-    <row r="139" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM138" s="9"/>
+      <c r="BN138" s="9"/>
+      <c r="BO138" s="9"/>
+      <c r="BP138" s="9"/>
+      <c r="BQ138" s="9"/>
+      <c r="BR138" s="9"/>
+      <c r="BS138" s="9"/>
+      <c r="BT138" s="9"/>
+    </row>
+    <row r="139" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG139" s="4"/>
       <c r="AH139" s="4"/>
       <c r="AI139" s="4"/>
@@ -10605,8 +11421,32 @@
       <c r="AM139" s="4">
         <v>3.9852110000000001</v>
       </c>
-    </row>
-    <row r="140" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM139" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN139" s="9">
+        <v>1.6249999999999999E-3</v>
+      </c>
+      <c r="BO139" s="9">
+        <v>1.036E-3</v>
+      </c>
+      <c r="BP139" s="9">
+        <v>8.8310000000000003E-3</v>
+      </c>
+      <c r="BQ139" s="9">
+        <v>4.3790999999999997E-2</v>
+      </c>
+      <c r="BR139" s="9">
+        <v>0.36402800000000002</v>
+      </c>
+      <c r="BS139" s="9">
+        <v>1.555855</v>
+      </c>
+      <c r="BT139" s="9">
+        <v>3.038033</v>
+      </c>
+    </row>
+    <row r="140" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG140" s="4"/>
       <c r="AH140" s="4"/>
       <c r="AI140" s="4"/>
@@ -10618,8 +11458,16 @@
       <c r="AM140" s="4">
         <v>3.9918779999999998</v>
       </c>
-    </row>
-    <row r="141" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM140" s="9"/>
+      <c r="BN140" s="9"/>
+      <c r="BO140" s="9"/>
+      <c r="BP140" s="9"/>
+      <c r="BQ140" s="9"/>
+      <c r="BR140" s="9"/>
+      <c r="BS140" s="9"/>
+      <c r="BT140" s="9"/>
+    </row>
+    <row r="141" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG141" s="4"/>
       <c r="AH141" s="4"/>
       <c r="AI141" s="4"/>
@@ -10631,8 +11479,16 @@
       <c r="AM141" s="4">
         <v>3.9888370000000002</v>
       </c>
-    </row>
-    <row r="142" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM141" s="9"/>
+      <c r="BN141" s="9"/>
+      <c r="BO141" s="9"/>
+      <c r="BP141" s="9"/>
+      <c r="BQ141" s="9"/>
+      <c r="BR141" s="9"/>
+      <c r="BS141" s="9"/>
+      <c r="BT141" s="9"/>
+    </row>
+    <row r="142" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG142" s="4"/>
       <c r="AH142" s="4"/>
       <c r="AI142" s="4"/>
@@ -10644,8 +11500,16 @@
       <c r="AM142" s="4">
         <v>3.9991219999999998</v>
       </c>
-    </row>
-    <row r="143" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM142" s="9"/>
+      <c r="BN142" s="9"/>
+      <c r="BO142" s="9"/>
+      <c r="BP142" s="9"/>
+      <c r="BQ142" s="9"/>
+      <c r="BR142" s="9"/>
+      <c r="BS142" s="9"/>
+      <c r="BT142" s="9"/>
+    </row>
+    <row r="143" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AF143" s="1" t="s">
         <v>6</v>
       </c>
@@ -10672,8 +11536,32 @@
         <f>AVERAGE(AM138:AM142)</f>
         <v>3.9914422000000003</v>
       </c>
-    </row>
-    <row r="144" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM143" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN143" s="9">
+        <v>4.4539999999999996E-3</v>
+      </c>
+      <c r="BO143" s="9">
+        <v>1.784E-3</v>
+      </c>
+      <c r="BP143" s="9">
+        <v>4.1489999999999999E-3</v>
+      </c>
+      <c r="BQ143" s="9">
+        <v>2.8105999999999999E-2</v>
+      </c>
+      <c r="BR143" s="9">
+        <v>0.21088699999999999</v>
+      </c>
+      <c r="BS143" s="9">
+        <v>0.87304099999999996</v>
+      </c>
+      <c r="BT143" s="9">
+        <v>1.8128839999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG144" s="4"/>
       <c r="AH144" s="4"/>
       <c r="AI144" s="4"/>
@@ -10683,8 +11571,16 @@
       <c r="AM144" s="4">
         <v>2.98109</v>
       </c>
-    </row>
-    <row r="145" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM144" s="9"/>
+      <c r="BN144" s="9"/>
+      <c r="BO144" s="9"/>
+      <c r="BP144" s="9"/>
+      <c r="BQ144" s="9"/>
+      <c r="BR144" s="9"/>
+      <c r="BS144" s="9"/>
+      <c r="BT144" s="9"/>
+    </row>
+    <row r="145" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG145" s="4"/>
       <c r="AH145" s="4"/>
       <c r="AI145" s="4"/>
@@ -10694,8 +11590,16 @@
       <c r="AM145" s="4">
         <v>2.9703339999999998</v>
       </c>
-    </row>
-    <row r="146" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM145" s="9"/>
+      <c r="BN145" s="9"/>
+      <c r="BO145" s="9"/>
+      <c r="BP145" s="9"/>
+      <c r="BQ145" s="9"/>
+      <c r="BR145" s="9"/>
+      <c r="BS145" s="9"/>
+      <c r="BT145" s="9"/>
+    </row>
+    <row r="146" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG146" s="4"/>
       <c r="AH146" s="4"/>
       <c r="AI146" s="4"/>
@@ -10705,8 +11609,16 @@
       <c r="AM146" s="4">
         <v>2.9968689999999998</v>
       </c>
-    </row>
-    <row r="147" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM146" s="9"/>
+      <c r="BN146" s="9"/>
+      <c r="BO146" s="9"/>
+      <c r="BP146" s="9"/>
+      <c r="BQ146" s="9"/>
+      <c r="BR146" s="9"/>
+      <c r="BS146" s="9"/>
+      <c r="BT146" s="9"/>
+    </row>
+    <row r="147" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG147" s="4"/>
       <c r="AH147" s="4"/>
       <c r="AI147" s="4"/>
@@ -10716,8 +11628,32 @@
       <c r="AM147" s="4">
         <v>2.9746809999999999</v>
       </c>
-    </row>
-    <row r="148" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM147" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN147" s="9">
+        <v>8.1259999999999995E-3</v>
+      </c>
+      <c r="BO147" s="9">
+        <v>4.0159999999999996E-3</v>
+      </c>
+      <c r="BP147" s="9">
+        <v>5.8180000000000003E-3</v>
+      </c>
+      <c r="BQ147" s="9">
+        <v>2.9111000000000001E-2</v>
+      </c>
+      <c r="BR147" s="9">
+        <v>0.14658499999999999</v>
+      </c>
+      <c r="BS147" s="9">
+        <v>0.55649499999999996</v>
+      </c>
+      <c r="BT147" s="9">
+        <v>1.1137159999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AG148" s="4"/>
       <c r="AH148" s="4"/>
       <c r="AI148" s="4"/>
@@ -10727,8 +11663,16 @@
       <c r="AM148" s="4">
         <v>2.9746350000000001</v>
       </c>
-    </row>
-    <row r="149" spans="32:39" x14ac:dyDescent="0.35">
+      <c r="BM148" s="9"/>
+      <c r="BN148" s="9"/>
+      <c r="BO148" s="9"/>
+      <c r="BP148" s="9"/>
+      <c r="BQ148" s="9"/>
+      <c r="BR148" s="9"/>
+      <c r="BS148" s="9"/>
+      <c r="BT148" s="9"/>
+    </row>
+    <row r="149" spans="32:72" x14ac:dyDescent="0.35">
       <c r="AF149" s="1" t="s">
         <v>7</v>
       </c>
@@ -10753,6 +11697,50 @@
       <c r="AM149" s="4">
         <f>AVERAGE(AM144:AM148)</f>
         <v>2.9795217999999997</v>
+      </c>
+      <c r="BM149" s="9"/>
+      <c r="BN149" s="9"/>
+      <c r="BO149" s="9"/>
+      <c r="BP149" s="9"/>
+      <c r="BQ149" s="9"/>
+      <c r="BR149" s="9"/>
+      <c r="BS149" s="9"/>
+      <c r="BT149" s="9"/>
+    </row>
+    <row r="150" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="BM150" s="9"/>
+      <c r="BN150" s="9"/>
+      <c r="BO150" s="9"/>
+      <c r="BP150" s="9"/>
+      <c r="BQ150" s="9"/>
+      <c r="BR150" s="9"/>
+      <c r="BS150" s="9"/>
+      <c r="BT150" s="9"/>
+    </row>
+    <row r="151" spans="32:72" x14ac:dyDescent="0.35">
+      <c r="BM151" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN151" s="9">
+        <v>1.2348E-2</v>
+      </c>
+      <c r="BO151" s="9">
+        <v>1.1531E-2</v>
+      </c>
+      <c r="BP151" s="9">
+        <v>7.607E-3</v>
+      </c>
+      <c r="BQ151" s="9">
+        <v>2.4392E-2</v>
+      </c>
+      <c r="BR151" s="9">
+        <v>0.110829</v>
+      </c>
+      <c r="BS151" s="9">
+        <v>0.41638500000000001</v>
+      </c>
+      <c r="BT151" s="9">
+        <v>0.85536299999999998</v>
       </c>
     </row>
   </sheetData>
